--- a/tests/integration_testing/results/plots/max_adopt_potential/Summary_Data-MAP.xlsx
+++ b/tests/integration_testing/results/plots/max_adopt_potential/Summary_Data-MAP.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="762" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="127">
   <si>
     <t>ECM Name</t>
   </si>
@@ -133,9 +133,6 @@
   </si>
   <si>
     <t>Res. Air Sealing (Exist), IECC c. 2021</t>
-  </si>
-  <si>
-    <t>Res. Air Sealing (New), IECC c. 2021</t>
   </si>
   <si>
     <t>Baseline competed</t>
@@ -757,7 +754,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AI46"/>
+  <dimension ref="A1:AI42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -875,85 +872,85 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J2">
-        <v>1012.896641865274</v>
+        <v>1004.240089871456</v>
       </c>
       <c r="K2">
-        <v>1013.052239399019</v>
+        <v>995.9848972822093</v>
       </c>
       <c r="L2">
-        <v>1011.068001181276</v>
+        <v>985.791143074962</v>
       </c>
       <c r="M2">
-        <v>1007.214212316397</v>
+        <v>973.9342715719156</v>
       </c>
       <c r="N2">
-        <v>1001.41970969021</v>
+        <v>960.4510304595208</v>
       </c>
       <c r="O2">
-        <v>994.6934482051549</v>
+        <v>946.4499319008526</v>
       </c>
       <c r="P2">
-        <v>988.5675435772192</v>
+        <v>933.3411463630764</v>
       </c>
       <c r="Q2">
-        <v>983.3528978277424</v>
+        <v>921.28127577547</v>
       </c>
       <c r="R2">
-        <v>977.7805601005293</v>
+        <v>909.1835906831125</v>
       </c>
       <c r="S2">
-        <v>972.4419310402078</v>
+        <v>897.5966709813436</v>
       </c>
       <c r="T2">
-        <v>967.1367604800923</v>
+        <v>886.2375469655015</v>
       </c>
       <c r="U2">
-        <v>962.3795965531544</v>
+        <v>875.5067691280495</v>
       </c>
       <c r="V2">
-        <v>957.1908664061357</v>
+        <v>864.56102580575</v>
       </c>
       <c r="W2">
-        <v>950.9165166023857</v>
+        <v>852.8018895956527</v>
       </c>
       <c r="X2">
-        <v>944.9094396234182</v>
+        <v>841.4674103264211</v>
       </c>
       <c r="Y2">
-        <v>939.6818574490771</v>
+        <v>830.8712838061259</v>
       </c>
       <c r="Z2">
-        <v>935.0293433817274</v>
+        <v>820.867392158138</v>
       </c>
       <c r="AA2">
-        <v>931.3614449721374</v>
+        <v>811.8657672432897</v>
       </c>
       <c r="AB2">
-        <v>927.9405757296884</v>
+        <v>803.2288257692277</v>
       </c>
       <c r="AC2">
-        <v>925.1481413876106</v>
+        <v>795.2410664663649</v>
       </c>
       <c r="AD2">
-        <v>922.5133012757249</v>
+        <v>787.4090983871927</v>
       </c>
       <c r="AE2">
-        <v>918.8594910430982</v>
+        <v>778.7807615648555</v>
       </c>
       <c r="AF2">
-        <v>916.0123656178752</v>
+        <v>770.9149710252249</v>
       </c>
       <c r="AG2">
-        <v>913.6534331518906</v>
+        <v>763.5953233492866</v>
       </c>
       <c r="AH2">
-        <v>910.9468916341457</v>
+        <v>756.1391560058446</v>
       </c>
       <c r="AI2">
-        <v>908.4754057643165</v>
+        <v>748.8990443829293</v>
       </c>
     </row>
     <row r="3" spans="1:35">
@@ -961,85 +958,85 @@
         <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J3">
-        <v>1009.327328135515</v>
+        <v>995.4860126063788</v>
       </c>
       <c r="K3">
-        <v>1005.999211916309</v>
+        <v>978.7142895826114</v>
       </c>
       <c r="L3">
-        <v>1000.655231020844</v>
+        <v>960.255550841081</v>
       </c>
       <c r="M3">
-        <v>993.3503005376066</v>
+        <v>940.1733814880678</v>
       </c>
       <c r="N3">
-        <v>984.0466914457232</v>
+        <v>918.6002672556529</v>
       </c>
       <c r="O3">
-        <v>973.7397430102515</v>
+        <v>896.6882374393049</v>
       </c>
       <c r="P3">
-        <v>964.0233861146736</v>
+        <v>875.8406334517537</v>
       </c>
       <c r="Q3">
-        <v>955.4311981836395</v>
+        <v>856.3554111223584</v>
       </c>
       <c r="R3">
-        <v>946.750194825942</v>
+        <v>837.2925516981273</v>
       </c>
       <c r="S3">
-        <v>938.5059486055578</v>
+        <v>819.1206549070359</v>
       </c>
       <c r="T3">
-        <v>930.5467190580972</v>
+        <v>801.5508609568755</v>
       </c>
       <c r="U3">
-        <v>923.3661205256607</v>
+        <v>784.8981834550011</v>
       </c>
       <c r="V3">
-        <v>915.942388998655</v>
+        <v>768.355238193399</v>
       </c>
       <c r="W3">
-        <v>907.6789459643678</v>
+        <v>751.4122108359909</v>
       </c>
       <c r="X3">
-        <v>899.8105668237685</v>
+        <v>735.1208293357879</v>
       </c>
       <c r="Y3">
-        <v>892.9628180950527</v>
+        <v>719.7928320084741</v>
       </c>
       <c r="Z3">
-        <v>886.8694366376179</v>
+        <v>705.2513378997144</v>
       </c>
       <c r="AA3">
-        <v>881.8638873278338</v>
+        <v>691.8324570310027</v>
       </c>
       <c r="AB3">
-        <v>877.1277652431918</v>
+        <v>678.8719980299724</v>
       </c>
       <c r="AC3">
-        <v>873.0647531381801</v>
+        <v>666.6255610310898</v>
       </c>
       <c r="AD3">
-        <v>869.3617724447593</v>
+        <v>654.7584158398647</v>
       </c>
       <c r="AE3">
-        <v>864.8701297075233</v>
+        <v>642.4726144946018</v>
       </c>
       <c r="AF3">
-        <v>861.220777606761</v>
+        <v>630.9723123387495</v>
       </c>
       <c r="AG3">
-        <v>858.0391708310358</v>
+        <v>620.0351331906554</v>
       </c>
       <c r="AH3">
-        <v>854.5458318410844</v>
+        <v>609.1129826638371</v>
       </c>
       <c r="AI3">
-        <v>851.4898003861341</v>
+        <v>598.6176761032937</v>
       </c>
     </row>
     <row r="4" spans="1:35">
@@ -1047,94 +1044,94 @@
         <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J4">
-        <v>3.569313729759061</v>
+        <v>8.754077265078747</v>
       </c>
       <c r="K4">
-        <v>7.053027482709171</v>
+        <v>17.27060769959741</v>
       </c>
       <c r="L4">
-        <v>10.41277016043123</v>
+        <v>25.53559223388041</v>
       </c>
       <c r="M4">
-        <v>13.86391177879106</v>
+        <v>33.76089008384788</v>
       </c>
       <c r="N4">
-        <v>17.37301824448818</v>
+        <v>41.85076320387002</v>
       </c>
       <c r="O4">
-        <v>20.95370519490454</v>
+        <v>49.76169446154887</v>
       </c>
       <c r="P4">
-        <v>24.54415746254807</v>
+        <v>57.50051291132445</v>
       </c>
       <c r="Q4">
-        <v>27.92169964410343</v>
+        <v>64.92586465311219</v>
       </c>
       <c r="R4">
-        <v>31.0303652745878</v>
+        <v>71.89103898498489</v>
       </c>
       <c r="S4">
-        <v>33.93598243465053</v>
+        <v>78.47601607430794</v>
       </c>
       <c r="T4">
-        <v>36.59004142199755</v>
+        <v>84.68668600862837</v>
       </c>
       <c r="U4">
-        <v>39.01347602749314</v>
+        <v>90.60858567304766</v>
       </c>
       <c r="V4">
-        <v>41.24847740748351</v>
+        <v>96.20578761235268</v>
       </c>
       <c r="W4">
-        <v>43.23757063801894</v>
+        <v>101.3896787596629</v>
       </c>
       <c r="X4">
-        <v>45.09887279964892</v>
+        <v>106.3465809906319</v>
       </c>
       <c r="Y4">
-        <v>46.71903935402537</v>
+        <v>111.0784517976527</v>
       </c>
       <c r="Z4">
-        <v>48.15990674410915</v>
+        <v>115.6160542584235</v>
       </c>
       <c r="AA4">
-        <v>49.49755764430314</v>
+        <v>120.0333102122865</v>
       </c>
       <c r="AB4">
-        <v>50.81281048649663</v>
+        <v>124.356827739255</v>
       </c>
       <c r="AC4">
-        <v>52.0833882494309</v>
+        <v>128.615505435276</v>
       </c>
       <c r="AD4">
-        <v>53.15152883096659</v>
+        <v>132.650682547328</v>
       </c>
       <c r="AE4">
-        <v>53.98936133557338</v>
+        <v>136.308147070253</v>
       </c>
       <c r="AF4">
-        <v>54.79158801111357</v>
+        <v>139.9426586864755</v>
       </c>
       <c r="AG4">
-        <v>55.61426232085397</v>
+        <v>143.5601901586312</v>
       </c>
       <c r="AH4">
-        <v>56.40105979306101</v>
+        <v>147.0261733420072</v>
       </c>
       <c r="AI4">
-        <v>56.98560537818234</v>
+        <v>150.2813682796362</v>
       </c>
     </row>
     <row r="5" spans="1:35">
@@ -1142,94 +1139,94 @@
         <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J5">
-        <v>0.07339303808747795</v>
+        <v>0.337506591042427</v>
       </c>
       <c r="K5">
-        <v>0.1442484085253409</v>
+        <v>0.6652725580088883</v>
       </c>
       <c r="L5">
-        <v>0.2125621202684516</v>
+        <v>0.9806866502399855</v>
       </c>
       <c r="M5">
-        <v>0.2863338668916012</v>
+        <v>1.29042952656633</v>
       </c>
       <c r="N5">
-        <v>0.366815316595799</v>
+        <v>1.594624027442542</v>
       </c>
       <c r="O5">
-        <v>0.4552007642889167</v>
+        <v>1.891066298397132</v>
       </c>
       <c r="P5">
-        <v>0.5494984201346794</v>
+        <v>2.179944187583071</v>
       </c>
       <c r="Q5">
-        <v>0.6410505996558092</v>
+        <v>2.457460988274822</v>
       </c>
       <c r="R5">
-        <v>0.7270381702386655</v>
+        <v>2.716684183156604</v>
       </c>
       <c r="S5">
-        <v>0.8097869846756417</v>
+        <v>2.962073844145966</v>
       </c>
       <c r="T5">
-        <v>0.8876076576564351</v>
+        <v>3.190644444934098</v>
       </c>
       <c r="U5">
-        <v>0.9605020600775019</v>
+        <v>3.408215744078343</v>
       </c>
       <c r="V5">
-        <v>1.02983357937076</v>
+        <v>3.613484616238822</v>
       </c>
       <c r="W5">
-        <v>1.093411603344751</v>
+        <v>3.801798268592335</v>
       </c>
       <c r="X5">
-        <v>1.155805262644698</v>
+        <v>3.981989528148628</v>
       </c>
       <c r="Y5">
-        <v>1.210966899579505</v>
+        <v>4.153245485006656</v>
       </c>
       <c r="Z5">
-        <v>1.262489281507067</v>
+        <v>4.318819528310879</v>
       </c>
       <c r="AA5">
-        <v>1.312116840481736</v>
+        <v>4.47687608408793</v>
       </c>
       <c r="AB5">
-        <v>1.362732329194699</v>
+        <v>4.627744622691553</v>
       </c>
       <c r="AC5">
-        <v>1.414212542575625</v>
+        <v>4.774412174216101</v>
       </c>
       <c r="AD5">
-        <v>1.459554328644104</v>
+        <v>4.910069118095345</v>
       </c>
       <c r="AE5">
-        <v>1.460235412705592</v>
+        <v>4.982359739973412</v>
       </c>
       <c r="AF5">
-        <v>1.47270509067758</v>
+        <v>5.066139355161837</v>
       </c>
       <c r="AG5">
-        <v>1.503427111802528</v>
+        <v>5.168141095227554</v>
       </c>
       <c r="AH5">
-        <v>1.544254851691456</v>
+        <v>5.278261410872203</v>
       </c>
       <c r="AI5">
-        <v>1.581114185103298</v>
+        <v>5.381003911304012</v>
       </c>
     </row>
     <row r="6" spans="1:35">
@@ -1237,94 +1234,94 @@
         <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J6">
-        <v>0.03857257231573501</v>
+        <v>0.1746070628423276</v>
       </c>
       <c r="K6">
-        <v>0.07599856585205178</v>
+        <v>0.3455846927590304</v>
       </c>
       <c r="L6">
-        <v>0.1116311088062944</v>
+        <v>0.5123553889595923</v>
       </c>
       <c r="M6">
-        <v>0.1486282282682971</v>
+        <v>0.6780153639140329</v>
       </c>
       <c r="N6">
-        <v>0.1866061600406188</v>
+        <v>0.8412076940432965</v>
       </c>
       <c r="O6">
-        <v>0.2255241025972405</v>
+        <v>1.000443393507146</v>
       </c>
       <c r="P6">
-        <v>0.264098474883854</v>
+        <v>1.155418979537862</v>
       </c>
       <c r="Q6">
-        <v>0.2978826394529693</v>
+        <v>1.303750229771926</v>
       </c>
       <c r="R6">
-        <v>0.3249490888790797</v>
+        <v>1.443432739931624</v>
       </c>
       <c r="S6">
-        <v>0.3478282208329754</v>
+        <v>1.574660583932425</v>
       </c>
       <c r="T6">
-        <v>0.3655259086956157</v>
+        <v>1.698808094522019</v>
       </c>
       <c r="U6">
-        <v>0.3784707682305888</v>
+        <v>1.818302032796945</v>
       </c>
       <c r="V6">
-        <v>0.388648346614424</v>
+        <v>1.932198359451733</v>
       </c>
       <c r="W6">
-        <v>0.3944176135156713</v>
+        <v>2.03831954586348</v>
       </c>
       <c r="X6">
-        <v>0.3981222233401164</v>
+        <v>2.141188520050357</v>
       </c>
       <c r="Y6">
-        <v>0.3955699762446012</v>
+        <v>2.23875349126774</v>
       </c>
       <c r="Z6">
-        <v>0.3879258693030553</v>
+        <v>2.332569397268023</v>
       </c>
       <c r="AA6">
-        <v>0.3769573663898637</v>
+        <v>2.423002582369185</v>
       </c>
       <c r="AB6">
-        <v>0.3646199631923184</v>
+        <v>2.512519467948727</v>
       </c>
       <c r="AC6">
-        <v>0.3498644009974354</v>
+        <v>2.601736156397918</v>
       </c>
       <c r="AD6">
-        <v>0.3319341851878141</v>
+        <v>2.686583976980292</v>
       </c>
       <c r="AE6">
-        <v>0.3130931980459472</v>
+        <v>2.768032857025016</v>
       </c>
       <c r="AF6">
-        <v>0.2916501885957874</v>
+        <v>2.847310849581258</v>
       </c>
       <c r="AG6">
-        <v>0.267657010663742</v>
+        <v>2.923174326916071</v>
       </c>
       <c r="AH6">
-        <v>0.2420533357132668</v>
+        <v>2.995778211511734</v>
       </c>
       <c r="AI6">
-        <v>0.2139891467181544</v>
+        <v>3.063683026552345</v>
       </c>
     </row>
     <row r="7" spans="1:35">
@@ -1332,94 +1329,94 @@
         <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J7">
-        <v>0.3418531577895011</v>
+        <v>0.5552528263304544</v>
       </c>
       <c r="K7">
-        <v>0.6727874142155629</v>
+        <v>1.093488651362174</v>
       </c>
       <c r="L7">
-        <v>0.9883025525983327</v>
+        <v>1.612695208559974</v>
       </c>
       <c r="M7">
-        <v>1.303567175471916</v>
+        <v>2.128212026876322</v>
       </c>
       <c r="N7">
-        <v>1.622567298292176</v>
+        <v>2.637795289934056</v>
       </c>
       <c r="O7">
-        <v>1.944668199810877</v>
+        <v>3.136942626153282</v>
       </c>
       <c r="P7">
-        <v>2.268431743505335</v>
+        <v>3.624473918251077</v>
       </c>
       <c r="Q7">
-        <v>2.580770537544332</v>
+        <v>4.092074662788044</v>
       </c>
       <c r="R7">
-        <v>2.869288196022469</v>
+        <v>4.528395542105631</v>
       </c>
       <c r="S7">
-        <v>3.143091625748519</v>
+        <v>4.937635209676409</v>
       </c>
       <c r="T7">
-        <v>3.396060929171081</v>
+        <v>5.317227887132607</v>
       </c>
       <c r="U7">
-        <v>3.634223962144884</v>
+        <v>5.676094098425216</v>
       </c>
       <c r="V7">
-        <v>3.857240662078553</v>
+        <v>6.014134145826135</v>
       </c>
       <c r="W7">
-        <v>4.059089641448622</v>
+        <v>6.323539844853424</v>
       </c>
       <c r="X7">
-        <v>4.251656424469442</v>
+        <v>6.617941594439553</v>
       </c>
       <c r="Y7">
-        <v>4.431534415140187</v>
+        <v>6.89573651454478</v>
       </c>
       <c r="Z7">
-        <v>4.605061764902239</v>
+        <v>7.164809587555204</v>
       </c>
       <c r="AA7">
-        <v>4.769840236760357</v>
+        <v>7.416404843228636</v>
       </c>
       <c r="AB7">
-        <v>4.926910531931529</v>
+        <v>7.656019468155844</v>
       </c>
       <c r="AC7">
-        <v>5.080495854597848</v>
+        <v>7.889096864406143</v>
       </c>
       <c r="AD7">
-        <v>5.217542298489679</v>
+        <v>8.097884580344827</v>
       </c>
       <c r="AE7">
-        <v>5.239402319858195</v>
+        <v>8.160266559568811</v>
       </c>
       <c r="AF7">
-        <v>5.289263249462478</v>
+        <v>8.250686491364943</v>
       </c>
       <c r="AG7">
-        <v>5.379744553732216</v>
+        <v>8.388709374728236</v>
       </c>
       <c r="AH7">
-        <v>5.489695860339378</v>
+        <v>8.548138943032999</v>
       </c>
       <c r="AI7">
-        <v>5.589086219035304</v>
+        <v>8.691408115473729</v>
       </c>
     </row>
     <row r="8" spans="1:35">
@@ -1427,94 +1424,94 @@
         <v>35</v>
       </c>
       <c r="B8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J8">
-        <v>-0.008936382843212572</v>
+        <v>0.1343543161464365</v>
       </c>
       <c r="K8">
-        <v>-0.01782924136162695</v>
+        <v>0.2654590188756064</v>
       </c>
       <c r="L8">
-        <v>-0.02713804083269699</v>
+        <v>0.3929624630817086</v>
       </c>
       <c r="M8">
-        <v>-0.03415836083025889</v>
+        <v>0.5193912898880129</v>
       </c>
       <c r="N8">
-        <v>-0.03882052144844436</v>
+        <v>0.6438455021632611</v>
       </c>
       <c r="O8">
-        <v>-0.0406233953438052</v>
+        <v>0.7653046821495728</v>
       </c>
       <c r="P8">
-        <v>-0.04047507162359109</v>
+        <v>0.8837970386670593</v>
       </c>
       <c r="Q8">
-        <v>-0.04226191407561399</v>
+        <v>0.9974665649928076</v>
       </c>
       <c r="R8">
-        <v>-0.04834449486008541</v>
+        <v>1.10437218507201</v>
       </c>
       <c r="S8">
-        <v>-0.05515423288671585</v>
+        <v>1.205079878695565</v>
       </c>
       <c r="T8">
-        <v>-0.06489108865572617</v>
+        <v>1.30022846944197</v>
       </c>
       <c r="U8">
-        <v>-0.07779695500974151</v>
+        <v>1.391566710399034</v>
       </c>
       <c r="V8">
-        <v>-0.09257361047533921</v>
+        <v>1.477919535341768</v>
       </c>
       <c r="W8">
-        <v>-0.1100660034585773</v>
+        <v>1.557824202592</v>
       </c>
       <c r="X8">
-        <v>-0.128861084159605</v>
+        <v>1.634873048901924</v>
       </c>
       <c r="Y8">
-        <v>-0.1518311189715071</v>
+        <v>1.708063127426865</v>
       </c>
       <c r="Z8">
-        <v>-0.1778726511820379</v>
+        <v>1.778679703465993</v>
       </c>
       <c r="AA8">
-        <v>-0.2049177850608372</v>
+        <v>1.847140116532483</v>
       </c>
       <c r="AB8">
-        <v>-0.2327280958053145</v>
+        <v>1.914824044158726</v>
       </c>
       <c r="AC8">
-        <v>-0.2620563963322016</v>
+        <v>1.982207437949133</v>
       </c>
       <c r="AD8">
-        <v>-0.29283609008202</v>
+        <v>2.046393395168673</v>
       </c>
       <c r="AE8">
-        <v>-0.3240221103508821</v>
+        <v>2.107513377925971</v>
       </c>
       <c r="AF8">
-        <v>-0.356705080903338</v>
+        <v>2.167139350995478</v>
       </c>
       <c r="AG8">
-        <v>-0.3900051833225501</v>
+        <v>2.224193951243543</v>
       </c>
       <c r="AH8">
-        <v>-0.424057217199476</v>
+        <v>2.278599732800838</v>
       </c>
       <c r="AI8">
-        <v>-0.4587287060782759</v>
+        <v>2.329591085200521</v>
       </c>
     </row>
     <row r="9" spans="1:35">
@@ -1522,94 +1519,94 @@
         <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J9">
-        <v>0.4574920721379133</v>
+        <v>1.049484397221846</v>
       </c>
       <c r="K9">
-        <v>0.9084802633680694</v>
+        <v>2.076028934901488</v>
       </c>
       <c r="L9">
-        <v>1.347991249246999</v>
+        <v>3.076725026074546</v>
       </c>
       <c r="M9">
-        <v>1.801132172134067</v>
+        <v>4.075438405001952</v>
       </c>
       <c r="N9">
-        <v>2.263951556133111</v>
+        <v>5.061883777305225</v>
       </c>
       <c r="O9">
-        <v>2.734481965970324</v>
+        <v>6.028511047917803</v>
       </c>
       <c r="P9">
-        <v>3.208529802003806</v>
+        <v>6.978265050894501</v>
       </c>
       <c r="Q9">
-        <v>3.662015961858176</v>
+        <v>7.89280356603266</v>
       </c>
       <c r="R9">
-        <v>4.081632621144801</v>
+        <v>8.754914291197222</v>
       </c>
       <c r="S9">
-        <v>4.47676366358535</v>
+        <v>9.570793384769523</v>
       </c>
       <c r="T9">
-        <v>4.842881396141504</v>
+        <v>10.3437934440188</v>
       </c>
       <c r="U9">
-        <v>5.185068439876948</v>
+        <v>11.08745580035281</v>
       </c>
       <c r="V9">
-        <v>5.505497671878467</v>
+        <v>11.79316755503953</v>
       </c>
       <c r="W9">
-        <v>5.797306889477115</v>
+        <v>12.45359322984683</v>
       </c>
       <c r="X9">
-        <v>6.076344524602993</v>
+        <v>13.08880113213689</v>
       </c>
       <c r="Y9">
-        <v>6.329015658183483</v>
+        <v>13.69429798262346</v>
       </c>
       <c r="Z9">
-        <v>6.560960070014622</v>
+        <v>14.27649347950764</v>
       </c>
       <c r="AA9">
-        <v>6.786485212781184</v>
+        <v>14.8528119488309</v>
       </c>
       <c r="AB9">
-        <v>7.01056097066553</v>
+        <v>15.42523130405881</v>
       </c>
       <c r="AC9">
-        <v>7.231148325316026</v>
+        <v>15.99112457948879</v>
       </c>
       <c r="AD9">
-        <v>7.43818489395498</v>
+        <v>16.5388885263591</v>
       </c>
       <c r="AE9">
-        <v>7.633996416571557</v>
+        <v>17.06160426401888</v>
       </c>
       <c r="AF9">
-        <v>7.821692910756163</v>
+        <v>17.57314650204318</v>
       </c>
       <c r="AG9">
-        <v>8.005725401365986</v>
+        <v>18.07522141773276</v>
       </c>
       <c r="AH9">
-        <v>8.180799826668975</v>
+        <v>18.5559867291818</v>
       </c>
       <c r="AI9">
-        <v>8.343404109035335</v>
+        <v>19.01946086793757</v>
       </c>
     </row>
     <row r="10" spans="1:35">
@@ -1617,94 +1614,94 @@
         <v>35</v>
       </c>
       <c r="B10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J10">
-        <v>0.07353777156186309</v>
+        <v>0.4549509340506576</v>
       </c>
       <c r="K10">
-        <v>0.1459396501354556</v>
+        <v>0.8985538192474223</v>
       </c>
       <c r="L10">
-        <v>0.213474825998096</v>
+        <v>1.330026831032438</v>
       </c>
       <c r="M10">
-        <v>0.2858393070566507</v>
+        <v>1.758984309727986</v>
       </c>
       <c r="N10">
-        <v>0.3647655269513049</v>
+        <v>2.180834123740801</v>
       </c>
       <c r="O10">
-        <v>0.4521552307015891</v>
+        <v>2.592883223261327</v>
       </c>
       <c r="P10">
-        <v>0.5418156113832487</v>
+        <v>2.995123215290531</v>
       </c>
       <c r="Q10">
-        <v>0.6185437193536343</v>
+        <v>3.384266731597182</v>
       </c>
       <c r="R10">
-        <v>0.6842353060884776</v>
+        <v>3.748665653066745</v>
       </c>
       <c r="S10">
-        <v>0.7415988381796849</v>
+        <v>4.095383659708952</v>
       </c>
       <c r="T10">
-        <v>0.7898785507913766</v>
+        <v>4.425101274439182</v>
       </c>
       <c r="U10">
-        <v>0.8270258754522221</v>
+        <v>4.742976134693483</v>
       </c>
       <c r="V10">
-        <v>0.8580010381635369</v>
+        <v>5.047698682413992</v>
       </c>
       <c r="W10">
-        <v>0.8784154371487329</v>
+        <v>5.332900756541291</v>
       </c>
       <c r="X10">
-        <v>0.8953045399018216</v>
+        <v>5.607224500183031</v>
       </c>
       <c r="Y10">
-        <v>0.8989405038499</v>
+        <v>5.870092762605564</v>
       </c>
       <c r="Z10">
-        <v>0.8929915308403398</v>
+        <v>6.122166646821128</v>
       </c>
       <c r="AA10">
-        <v>0.8837761057997106</v>
+        <v>6.371027327477133</v>
       </c>
       <c r="AB10">
-        <v>0.8760750527673054</v>
+        <v>6.617805957355353</v>
       </c>
       <c r="AC10">
-        <v>0.8635321023359867</v>
+        <v>6.859212907145253</v>
       </c>
       <c r="AD10">
-        <v>0.8380884571989781</v>
+        <v>7.096856542826976</v>
       </c>
       <c r="AE10">
-        <v>0.8069681465029831</v>
+        <v>7.324787055256684</v>
       </c>
       <c r="AF10">
-        <v>0.7667111713052104</v>
+        <v>7.547731427691571</v>
       </c>
       <c r="AG10">
-        <v>0.725715814514045</v>
+        <v>7.766071000163643</v>
       </c>
       <c r="AH10">
-        <v>0.6892898834447564</v>
+        <v>7.974990372905851</v>
       </c>
       <c r="AI10">
-        <v>0.6404042289553752</v>
+        <v>8.178919236982715</v>
       </c>
     </row>
     <row r="11" spans="1:35">
@@ -1712,94 +1709,94 @@
         <v>35</v>
       </c>
       <c r="B11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J11">
-        <v>1.249411847724951</v>
+        <v>2.351065646595893</v>
       </c>
       <c r="K11">
-        <v>2.474335759877068</v>
+        <v>4.64601748189833</v>
       </c>
       <c r="L11">
-        <v>3.667268955976588</v>
+        <v>6.881202795682115</v>
       </c>
       <c r="M11">
-        <v>4.890813885202693</v>
+        <v>9.118453509250072</v>
       </c>
       <c r="N11">
-        <v>6.120640126101892</v>
+        <v>11.31904210738951</v>
       </c>
       <c r="O11">
-        <v>7.357552412724368</v>
+        <v>13.47416006728908</v>
       </c>
       <c r="P11">
-        <v>8.592058303372779</v>
+        <v>15.58626768196589</v>
       </c>
       <c r="Q11">
-        <v>9.768926052475221</v>
+        <v>17.60936014438392</v>
       </c>
       <c r="R11">
-        <v>10.85995427229958</v>
+        <v>19.50961707399564</v>
       </c>
       <c r="S11">
-        <v>11.88730057577834</v>
+        <v>21.30258681668488</v>
       </c>
       <c r="T11">
-        <v>12.83953353792768</v>
+        <v>22.99107141548127</v>
       </c>
       <c r="U11">
-        <v>13.72647405139894</v>
+        <v>24.5985774236344</v>
       </c>
       <c r="V11">
-        <v>14.54747539688052</v>
+        <v>26.11153606248076</v>
       </c>
       <c r="W11">
-        <v>15.28477749358783</v>
+        <v>27.50539649524196</v>
       </c>
       <c r="X11">
-        <v>15.98296565897195</v>
+        <v>28.83692523390972</v>
       </c>
       <c r="Y11">
-        <v>16.62179557130072</v>
+        <v>30.10795679503097</v>
       </c>
       <c r="Z11">
-        <v>17.21599135039268</v>
+        <v>31.32522589654087</v>
       </c>
       <c r="AA11">
-        <v>17.78940664022247</v>
+        <v>32.51256567595859</v>
       </c>
       <c r="AB11">
-        <v>18.35728925818159</v>
+        <v>33.68000401892484</v>
       </c>
       <c r="AC11">
-        <v>18.92562073127251</v>
+        <v>34.83920053704425</v>
       </c>
       <c r="AD11">
-        <v>19.43696577460082</v>
+        <v>35.92453496459424</v>
       </c>
       <c r="AE11">
-        <v>19.92738620598971</v>
+        <v>36.96326395730033</v>
       </c>
       <c r="AF11">
-        <v>20.41333226551162</v>
+        <v>37.98865726888318</v>
       </c>
       <c r="AG11">
-        <v>20.89464904114479</v>
+        <v>38.99754944706572</v>
       </c>
       <c r="AH11">
-        <v>21.34126166252183</v>
+        <v>39.94689169974663</v>
       </c>
       <c r="AI11">
-        <v>21.72773788672406</v>
+        <v>40.82449873620714</v>
       </c>
     </row>
     <row r="12" spans="1:35">
@@ -1807,94 +1804,94 @@
         <v>35</v>
       </c>
       <c r="B12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J12">
-        <v>0.2449262530769524</v>
+        <v>0.658840983100299</v>
       </c>
       <c r="K12">
-        <v>0.4830031131960145</v>
+        <v>1.301126980294806</v>
       </c>
       <c r="L12">
-        <v>0.7090728946006353</v>
+        <v>1.925545395768945</v>
       </c>
       <c r="M12">
-        <v>0.9361538458311444</v>
+        <v>2.545219973685225</v>
       </c>
       <c r="N12">
-        <v>1.164017023538345</v>
+        <v>3.151834697848124</v>
       </c>
       <c r="O12">
-        <v>1.395561045890343</v>
+        <v>3.741690987213093</v>
       </c>
       <c r="P12">
-        <v>1.622044097901042</v>
+        <v>4.314885765935957</v>
       </c>
       <c r="Q12">
-        <v>1.826044292979196</v>
+        <v>4.871252903911637</v>
       </c>
       <c r="R12">
-        <v>2.008258214975443</v>
+        <v>5.390125392335293</v>
       </c>
       <c r="S12">
-        <v>2.174197771619641</v>
+        <v>5.885441462484712</v>
       </c>
       <c r="T12">
-        <v>2.324025367382372</v>
+        <v>6.356831995260428</v>
       </c>
       <c r="U12">
-        <v>2.455285939311913</v>
+        <v>6.811740650695563</v>
       </c>
       <c r="V12">
-        <v>2.574769825331265</v>
+        <v>7.250775457215714</v>
       </c>
       <c r="W12">
-        <v>2.672435683075935</v>
+        <v>7.661151290059943</v>
       </c>
       <c r="X12">
-        <v>2.760170992501375</v>
+        <v>8.056351470599354</v>
       </c>
       <c r="Y12">
-        <v>2.829629288863964</v>
+        <v>8.436762722298674</v>
       </c>
       <c r="Z12">
-        <v>2.886412177101445</v>
+        <v>8.801584667562507</v>
       </c>
       <c r="AA12">
-        <v>2.940241022001892</v>
+        <v>9.160409616468025</v>
       </c>
       <c r="AB12">
-        <v>2.99800825003663</v>
+        <v>9.516226797905649</v>
       </c>
       <c r="AC12">
-        <v>3.043611315734557</v>
+        <v>9.86199225849087</v>
       </c>
       <c r="AD12">
-        <v>3.067866142472516</v>
+        <v>10.20608369306861</v>
       </c>
       <c r="AE12">
-        <v>3.07774383053219</v>
+        <v>10.53838640500076</v>
       </c>
       <c r="AF12">
-        <v>3.069075465633981</v>
+        <v>10.86385859602336</v>
       </c>
       <c r="AG12">
-        <v>3.058035670349057</v>
+        <v>11.1816833617065</v>
       </c>
       <c r="AH12">
-        <v>3.055483379301541</v>
+        <v>11.48518415000568</v>
       </c>
       <c r="AI12">
-        <v>3.034096408268694</v>
+        <v>11.78582901629028</v>
       </c>
     </row>
     <row r="13" spans="1:35">
@@ -1902,94 +1899,94 @@
         <v>35</v>
       </c>
       <c r="B13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J13">
-        <v>0.02341668650186524</v>
+        <v>0.1132693627742692</v>
       </c>
       <c r="K13">
-        <v>0.04566762570811399</v>
+        <v>0.2249466864822672</v>
       </c>
       <c r="L13">
-        <v>0.06600458044847077</v>
+        <v>0.3344776819475624</v>
       </c>
       <c r="M13">
-        <v>0.08556164559839159</v>
+        <v>0.443199882593843</v>
       </c>
       <c r="N13">
-        <v>0.104294407834247</v>
+        <v>0.5501556610446608</v>
       </c>
       <c r="O13">
-        <v>0.1224502108445185</v>
+        <v>0.6545600311651313</v>
       </c>
       <c r="P13">
-        <v>0.1385301366340682</v>
+        <v>0.7560934040532538</v>
       </c>
       <c r="Q13">
-        <v>0.1497178138144949</v>
+        <v>0.8538237482032891</v>
       </c>
       <c r="R13">
-        <v>0.1572730573624936</v>
+        <v>0.9469335161293773</v>
       </c>
       <c r="S13">
-        <v>0.1606413951216195</v>
+        <v>1.035460766190392</v>
       </c>
       <c r="T13">
-        <v>0.16048146008875</v>
+        <v>1.12035449142119</v>
       </c>
       <c r="U13">
-        <v>0.1566748318095327</v>
+        <v>1.203156082124742</v>
       </c>
       <c r="V13">
-        <v>0.1523113074815804</v>
+        <v>1.283478204891409</v>
       </c>
       <c r="W13">
-        <v>0.1458108018067948</v>
+        <v>1.359583098759173</v>
       </c>
       <c r="X13">
-        <v>0.1382028857838413</v>
+        <v>1.434030379510107</v>
       </c>
       <c r="Y13">
-        <v>0.1256838669944644</v>
+        <v>1.505622269990323</v>
       </c>
       <c r="Z13">
-        <v>0.1082033625692739</v>
+        <v>1.575033195490225</v>
       </c>
       <c r="AA13">
-        <v>0.086492894755231</v>
+        <v>1.642743489770069</v>
       </c>
       <c r="AB13">
-        <v>0.06344270458148009</v>
+        <v>1.710248652300013</v>
       </c>
       <c r="AC13">
-        <v>0.03712198210900002</v>
+        <v>1.777885854531195</v>
       </c>
       <c r="AD13">
-        <v>0.007451363009385248</v>
+        <v>1.843018303817943</v>
       </c>
       <c r="AE13">
-        <v>-0.02305034670009328</v>
+        <v>1.905589524440007</v>
       </c>
       <c r="AF13">
-        <v>-0.05623963680552737</v>
+        <v>1.967058414871341</v>
       </c>
       <c r="AG13">
-        <v>-0.09250554574506077</v>
+        <v>2.027174156825403</v>
       </c>
       <c r="AH13">
-        <v>-0.1291274678120598</v>
+        <v>2.085637952525994</v>
       </c>
       <c r="AI13">
-        <v>-0.1685946599336153</v>
+        <v>2.141322326954316</v>
       </c>
     </row>
     <row r="14" spans="1:35">
@@ -1997,94 +1994,94 @@
         <v>35</v>
       </c>
       <c r="B14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J14">
-        <v>0.4353831455013814</v>
+        <v>1.758381843165796</v>
       </c>
       <c r="K14">
-        <v>0.8515972431342901</v>
+        <v>3.453064809265164</v>
       </c>
       <c r="L14">
-        <v>1.23780727514318</v>
+        <v>5.080923596682839</v>
       </c>
       <c r="M14">
-        <v>1.633201162894811</v>
+        <v>6.679539045100016</v>
       </c>
       <c r="N14">
-        <v>2.047126547222451</v>
+        <v>8.246940182532738</v>
       </c>
       <c r="O14">
-        <v>2.48577371494494</v>
+        <v>9.772940668465042</v>
       </c>
       <c r="P14">
-        <v>2.930544270244974</v>
+        <v>11.26475762562518</v>
       </c>
       <c r="Q14">
-        <v>3.329624389422448</v>
+        <v>12.68860360286941</v>
       </c>
       <c r="R14">
-        <v>3.696320672770059</v>
+        <v>14.01623747151307</v>
       </c>
       <c r="S14">
-        <v>4.027835616701161</v>
+        <v>15.26999607868595</v>
       </c>
       <c r="T14">
-        <v>4.311370541173973</v>
+        <v>16.45120842069231</v>
       </c>
       <c r="U14">
-        <v>4.54698402371535</v>
+        <v>17.5676737700048</v>
       </c>
       <c r="V14">
-        <v>4.761787620786081</v>
+        <v>18.61774819232111</v>
       </c>
       <c r="W14">
-        <v>4.953823624033861</v>
+        <v>19.58770105703088</v>
       </c>
       <c r="X14">
-        <v>5.121813022630857</v>
+        <v>20.51009384555339</v>
       </c>
       <c r="Y14">
-        <v>5.226416165894198</v>
+        <v>21.38853750207159</v>
       </c>
       <c r="Z14">
-        <v>5.283142924342761</v>
+        <v>22.2270302774864</v>
       </c>
       <c r="AA14">
-        <v>5.300259918254578</v>
+        <v>23.04140652198582</v>
       </c>
       <c r="AB14">
-        <v>5.313862888349004</v>
+        <v>23.82925320772765</v>
       </c>
       <c r="AC14">
-        <v>5.305302577150586</v>
+        <v>24.58989163042012</v>
       </c>
       <c r="AD14">
-        <v>5.26521696944123</v>
+        <v>25.31354894754049</v>
       </c>
       <c r="AE14">
-        <v>5.216819448497897</v>
+        <v>25.99070976968424</v>
       </c>
       <c r="AF14">
-        <v>5.138383329483361</v>
+        <v>26.65087920365565</v>
       </c>
       <c r="AG14">
-        <v>5.031309516672996</v>
+        <v>27.27286941982973</v>
       </c>
       <c r="AH14">
-        <v>4.915203029827689</v>
+        <v>27.8595219028523</v>
       </c>
       <c r="AI14">
-        <v>4.758352323609889</v>
+        <v>28.41357981042703</v>
       </c>
     </row>
     <row r="15" spans="1:35">
@@ -2092,94 +2089,94 @@
         <v>35</v>
       </c>
       <c r="B15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J15">
-        <v>0.6402635679046333</v>
+        <v>1.166363301808341</v>
       </c>
       <c r="K15">
-        <v>1.268798680058831</v>
+        <v>2.301064066502231</v>
       </c>
       <c r="L15">
-        <v>1.885792638176875</v>
+        <v>3.407991195850701</v>
       </c>
       <c r="M15">
-        <v>2.52683885027175</v>
+        <v>4.52400675124409</v>
       </c>
       <c r="N15">
-        <v>3.17105480322668</v>
+        <v>5.6226001404258</v>
       </c>
       <c r="O15">
-        <v>3.820960942475223</v>
+        <v>6.703191436030259</v>
       </c>
       <c r="P15">
-        <v>4.469081674107882</v>
+        <v>7.761486043520082</v>
       </c>
       <c r="Q15">
-        <v>5.089385551622759</v>
+        <v>8.77500151028649</v>
       </c>
       <c r="R15">
-        <v>5.669760169666811</v>
+        <v>9.731660936481671</v>
       </c>
       <c r="S15">
-        <v>6.222091975294302</v>
+        <v>10.63690438933317</v>
       </c>
       <c r="T15">
-        <v>6.73756716162448</v>
+        <v>11.49141607128449</v>
       </c>
       <c r="U15">
-        <v>7.220563030485004</v>
+        <v>12.30282722584231</v>
       </c>
       <c r="V15">
-        <v>7.665485569373667</v>
+        <v>13.06364680113169</v>
       </c>
       <c r="W15">
-        <v>8.068147854038193</v>
+        <v>13.76787097028159</v>
       </c>
       <c r="X15">
-        <v>8.44734834896143</v>
+        <v>14.43716173719892</v>
       </c>
       <c r="Y15">
-        <v>8.80131812694586</v>
+        <v>15.0793831447861</v>
       </c>
       <c r="Z15">
-        <v>9.1346010643177</v>
+        <v>15.69364187841458</v>
       </c>
       <c r="AA15">
-        <v>9.45689919191696</v>
+        <v>16.28892200557768</v>
       </c>
       <c r="AB15">
-        <v>9.772036633401843</v>
+        <v>16.86695019802779</v>
       </c>
       <c r="AC15">
-        <v>10.09453481367353</v>
+        <v>17.44874503518625</v>
       </c>
       <c r="AD15">
-        <v>10.3815605080491</v>
+        <v>17.98682049853145</v>
       </c>
       <c r="AE15">
-        <v>10.66078881392029</v>
+        <v>18.50563356005894</v>
       </c>
       <c r="AF15">
-        <v>10.94171905739626</v>
+        <v>19.02005122620369</v>
       </c>
       <c r="AG15">
-        <v>11.23050892967622</v>
+        <v>19.53540260719199</v>
       </c>
       <c r="AH15">
-        <v>11.49620264856366</v>
+        <v>20.01718223657122</v>
       </c>
       <c r="AI15">
-        <v>11.72474423674413</v>
+        <v>20.45207214630652</v>
       </c>
     </row>
     <row r="16" spans="1:35">
@@ -2187,94 +2184,94 @@
         <v>35</v>
       </c>
       <c r="B16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J16">
-        <v>-5.184763535319687</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>-10.21758021688823</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>-15.12282207344918</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>-19.89697830505682</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>-24.47774495938184</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>-28.80798926664433</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>-32.95635544877639</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>-37.00416500900876</v>
+        <v>0</v>
       </c>
       <c r="R16">
-        <v>-40.86067371039709</v>
+        <v>0</v>
       </c>
       <c r="S16">
-        <v>-44.54003363965741</v>
+        <v>0</v>
       </c>
       <c r="T16">
-        <v>-48.09664458663083</v>
+        <v>0</v>
       </c>
       <c r="U16">
-        <v>-51.59510964555451</v>
+        <v>0</v>
       </c>
       <c r="V16">
-        <v>-54.95731020486915</v>
+        <v>0</v>
       </c>
       <c r="W16">
-        <v>-58.15210812164398</v>
+        <v>0</v>
       </c>
       <c r="X16">
-        <v>-61.24770819098297</v>
+        <v>0</v>
       </c>
       <c r="Y16">
-        <v>-64.35941244362733</v>
+        <v>0</v>
       </c>
       <c r="Z16">
-        <v>-67.45614751431432</v>
+        <v>0</v>
       </c>
       <c r="AA16">
-        <v>-70.53575256798331</v>
+        <v>0</v>
       </c>
       <c r="AB16">
-        <v>-73.54401725275834</v>
+        <v>0</v>
       </c>
       <c r="AC16">
-        <v>-76.53211718584511</v>
+        <v>0</v>
       </c>
       <c r="AD16">
-        <v>-79.49915371636136</v>
+        <v>0</v>
       </c>
       <c r="AE16">
-        <v>-82.31878573467966</v>
+        <v>0</v>
       </c>
       <c r="AF16">
-        <v>-85.15107067536189</v>
+        <v>0</v>
       </c>
       <c r="AG16">
-        <v>-87.94592783777718</v>
+        <v>0</v>
       </c>
       <c r="AH16">
-        <v>-90.62511354894623</v>
+        <v>0</v>
       </c>
       <c r="AI16">
-        <v>-93.29576290145383</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:35">
@@ -2282,16 +2279,16 @@
         <v>35</v>
       </c>
       <c r="B17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J17">
         <v>2.242713334279578</v>
@@ -2377,16 +2374,16 @@
         <v>35</v>
       </c>
       <c r="B18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J18">
         <v>4.439780828997264</v>
@@ -2472,16 +2469,16 @@
         <v>35</v>
       </c>
       <c r="B19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J19">
         <v>2.071583101801905</v>
@@ -2567,16 +2564,16 @@
         <v>35</v>
       </c>
       <c r="B20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -2662,16 +2659,16 @@
         <v>35</v>
       </c>
       <c r="B21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -2757,94 +2754,94 @@
         <v>35</v>
       </c>
       <c r="B22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E22" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J22">
-        <v>4.800152126179961</v>
+        <v>9.172700268796861</v>
       </c>
       <c r="K22">
-        <v>9.483079209552576</v>
+        <v>18.08129418884214</v>
       </c>
       <c r="L22">
-        <v>14.02625441429661</v>
+        <v>26.71887620124412</v>
       </c>
       <c r="M22">
-        <v>18.67623252867054</v>
+        <v>35.32902487745112</v>
       </c>
       <c r="N22">
-        <v>23.39319947799217</v>
+        <v>43.81907109275659</v>
       </c>
       <c r="O22">
-        <v>28.17049127289115</v>
+        <v>52.13713459167369</v>
       </c>
       <c r="P22">
-        <v>32.97324195259703</v>
+        <v>60.29742622896955</v>
       </c>
       <c r="Q22">
-        <v>37.5838665830271</v>
+        <v>68.13855365897832</v>
       </c>
       <c r="R22">
-        <v>41.85609785378163</v>
+        <v>75.47418829662682</v>
       </c>
       <c r="S22">
-        <v>45.91968326733005</v>
+        <v>82.41335689715893</v>
       </c>
       <c r="T22">
-        <v>49.70831463520864</v>
+        <v>88.9472269353805</v>
       </c>
       <c r="U22">
-        <v>53.26356662485048</v>
+        <v>95.16590574505976</v>
       </c>
       <c r="V22">
-        <v>56.58711395540406</v>
+        <v>101.023289880709</v>
       </c>
       <c r="W22">
-        <v>59.61419361920247</v>
+        <v>106.4300295655436</v>
       </c>
       <c r="X22">
-        <v>62.49165650274717</v>
+        <v>111.5872947737699</v>
       </c>
       <c r="Y22">
-        <v>65.14474089765743</v>
+        <v>116.507495666975</v>
       </c>
       <c r="Z22">
-        <v>67.64424484205972</v>
+        <v>121.235557957748</v>
       </c>
       <c r="AA22">
-        <v>70.08610704223638</v>
+        <v>125.8565146825887</v>
       </c>
       <c r="AB22">
-        <v>72.49544197679761</v>
+        <v>130.3727920819292</v>
       </c>
       <c r="AC22">
-        <v>74.89139032794181</v>
+        <v>134.8204312779952</v>
       </c>
       <c r="AD22">
-        <v>77.1238114057189</v>
+        <v>139.0441944819025</v>
       </c>
       <c r="AE22">
-        <v>79.11159275552319</v>
+        <v>142.8695036858284</v>
       </c>
       <c r="AF22">
-        <v>81.11433989748959</v>
+        <v>146.6782735766656</v>
       </c>
       <c r="AG22">
-        <v>83.1567462184542</v>
+        <v>150.4708078588126</v>
       </c>
       <c r="AH22">
-        <v>85.13724770973691</v>
+        <v>154.1143266467199</v>
       </c>
       <c r="AI22">
-        <v>86.96300923393554</v>
+        <v>157.5528136447444</v>
       </c>
     </row>
     <row r="23" spans="1:35">
@@ -2852,94 +2849,94 @@
         <v>35</v>
       </c>
       <c r="B23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E23" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J23">
-        <v>-1.230838396420902</v>
+        <v>-0.4186230037181158</v>
       </c>
       <c r="K23">
-        <v>-2.430051726843404</v>
+        <v>-0.8106864892447363</v>
       </c>
       <c r="L23">
-        <v>-3.613484253865387</v>
+        <v>-1.183283967363713</v>
       </c>
       <c r="M23">
-        <v>-4.812320749879477</v>
+        <v>-1.568134793603239</v>
       </c>
       <c r="N23">
-        <v>-6.020181233503994</v>
+        <v>-1.968307888886568</v>
       </c>
       <c r="O23">
-        <v>-7.216786077986611</v>
+        <v>-2.37544013012481</v>
       </c>
       <c r="P23">
-        <v>-8.429084490048943</v>
+        <v>-2.796913317645086</v>
       </c>
       <c r="Q23">
-        <v>-9.662166938923683</v>
+        <v>-3.212689005866145</v>
       </c>
       <c r="R23">
-        <v>-10.82573257919384</v>
+        <v>-3.583149311641933</v>
       </c>
       <c r="S23">
-        <v>-11.98370083267954</v>
+        <v>-3.937340822851013</v>
       </c>
       <c r="T23">
-        <v>-13.11827321321109</v>
+        <v>-4.260540926752111</v>
       </c>
       <c r="U23">
-        <v>-14.25009059735733</v>
+        <v>-4.557320072012114</v>
       </c>
       <c r="V23">
-        <v>-15.33863654792056</v>
+        <v>-4.817502268356295</v>
       </c>
       <c r="W23">
-        <v>-16.37662298118354</v>
+        <v>-5.040350805880711</v>
       </c>
       <c r="X23">
-        <v>-17.39278370309825</v>
+        <v>-5.240713783138044</v>
       </c>
       <c r="Y23">
-        <v>-18.42570154363207</v>
+        <v>-5.429043869322352</v>
       </c>
       <c r="Z23">
-        <v>-19.48433809795056</v>
+        <v>-5.619503699324547</v>
       </c>
       <c r="AA23">
-        <v>-20.58854939793325</v>
+        <v>-5.823204470302207</v>
       </c>
       <c r="AB23">
-        <v>-21.68263149030098</v>
+        <v>-6.015964342674232</v>
       </c>
       <c r="AC23">
-        <v>-22.80800207851092</v>
+        <v>-6.204925842719209</v>
       </c>
       <c r="AD23">
-        <v>-23.9722825747523</v>
+        <v>-6.393511934574485</v>
       </c>
       <c r="AE23">
-        <v>-25.12223141994981</v>
+        <v>-6.561356615575334</v>
       </c>
       <c r="AF23">
-        <v>-26.32275188637602</v>
+        <v>-6.735614890190169</v>
       </c>
       <c r="AG23">
-        <v>-27.54248389760022</v>
+        <v>-6.910617700181433</v>
       </c>
       <c r="AH23">
-        <v>-28.73618791667591</v>
+        <v>-7.088153304712681</v>
       </c>
       <c r="AI23">
-        <v>-29.97740385575319</v>
+        <v>-7.271445365108266</v>
       </c>
     </row>
     <row r="24" spans="1:35">
@@ -2947,16 +2944,16 @@
         <v>35</v>
       </c>
       <c r="B24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -3042,16 +3039,16 @@
         <v>35</v>
       </c>
       <c r="B25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E25" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -3137,16 +3134,16 @@
         <v>35</v>
       </c>
       <c r="B26" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E26" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J26">
         <v>0</v>
@@ -3232,16 +3229,16 @@
         <v>35</v>
       </c>
       <c r="B27" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E27" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J27">
         <v>0</v>
@@ -3327,16 +3324,16 @@
         <v>35</v>
       </c>
       <c r="B28" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E28" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J28">
         <v>0</v>
@@ -3422,16 +3419,16 @@
         <v>35</v>
       </c>
       <c r="B29" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E29" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J29">
         <v>0</v>
@@ -3517,16 +3514,16 @@
         <v>35</v>
       </c>
       <c r="B30" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E30" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J30">
         <v>0</v>
@@ -3612,16 +3609,16 @@
         <v>36</v>
       </c>
       <c r="B31" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C31" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D31" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E31" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F31">
         <v>0.2649</v>
@@ -3719,16 +3716,16 @@
         <v>36</v>
       </c>
       <c r="B32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C32" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D32" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E32" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F32">
         <v>0.2649</v>
@@ -3826,16 +3823,16 @@
         <v>36</v>
       </c>
       <c r="B33" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C33" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D33" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E33" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F33">
         <v>0.2649</v>
@@ -3933,16 +3930,16 @@
         <v>36</v>
       </c>
       <c r="B34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C34" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D34" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E34" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F34">
         <v>0.2649</v>
@@ -4040,16 +4037,16 @@
         <v>37</v>
       </c>
       <c r="B35" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C35" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D35" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E35" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F35">
         <v>20.5893</v>
@@ -4147,16 +4144,16 @@
         <v>37</v>
       </c>
       <c r="B36" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C36" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D36" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E36" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F36">
         <v>20.5893</v>
@@ -4254,16 +4251,16 @@
         <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C37" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D37" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E37" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F37">
         <v>20.5893</v>
@@ -4361,16 +4358,16 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C38" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D38" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E38" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F38">
         <v>20.5893</v>
@@ -4468,16 +4465,16 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C39" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D39" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E39" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F39">
         <v>2.1032</v>
@@ -4575,16 +4572,16 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C40" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D40" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E40" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F40">
         <v>2.1032</v>
@@ -4682,16 +4679,16 @@
         <v>38</v>
       </c>
       <c r="B41" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C41" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D41" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E41" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F41">
         <v>2.1032</v>
@@ -4789,16 +4786,16 @@
         <v>38</v>
       </c>
       <c r="B42" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C42" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D42" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E42" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F42">
         <v>2.1032</v>
@@ -4889,434 +4886,6 @@
       </c>
       <c r="AI42">
         <v>531.8606284360756</v>
-      </c>
-    </row>
-    <row r="43" spans="1:35">
-      <c r="A43" t="s">
-        <v>39</v>
-      </c>
-      <c r="B43" t="s">
-        <v>43</v>
-      </c>
-      <c r="C43" t="s">
-        <v>57</v>
-      </c>
-      <c r="D43" t="s">
-        <v>63</v>
-      </c>
-      <c r="E43" t="s">
-        <v>75</v>
-      </c>
-      <c r="F43">
-        <v>999</v>
-      </c>
-      <c r="G43">
-        <v>0</v>
-      </c>
-      <c r="H43">
-        <v>999</v>
-      </c>
-      <c r="I43">
-        <v>999</v>
-      </c>
-      <c r="J43">
-        <v>8.656551993817624</v>
-      </c>
-      <c r="K43">
-        <v>17.06734211680936</v>
-      </c>
-      <c r="L43">
-        <v>25.27685810631396</v>
-      </c>
-      <c r="M43">
-        <v>33.27994074448203</v>
-      </c>
-      <c r="N43">
-        <v>40.96867923068965</v>
-      </c>
-      <c r="O43">
-        <v>48.24351630430255</v>
-      </c>
-      <c r="P43">
-        <v>55.22639721414277</v>
-      </c>
-      <c r="Q43">
-        <v>62.07162205227235</v>
-      </c>
-      <c r="R43">
-        <v>68.59696941741691</v>
-      </c>
-      <c r="S43">
-        <v>74.84526005886414</v>
-      </c>
-      <c r="T43">
-        <v>80.89921351459112</v>
-      </c>
-      <c r="U43">
-        <v>86.87282742510504</v>
-      </c>
-      <c r="V43">
-        <v>92.62984060038582</v>
-      </c>
-      <c r="W43">
-        <v>98.11462700673279</v>
-      </c>
-      <c r="X43">
-        <v>103.4420292969969</v>
-      </c>
-      <c r="Y43">
-        <v>108.8105736429513</v>
-      </c>
-      <c r="Z43">
-        <v>114.1619512235895</v>
-      </c>
-      <c r="AA43">
-        <v>119.4956777288479</v>
-      </c>
-      <c r="AB43">
-        <v>124.7117499604612</v>
-      </c>
-      <c r="AC43">
-        <v>129.9070749212456</v>
-      </c>
-      <c r="AD43">
-        <v>135.1042028885322</v>
-      </c>
-      <c r="AE43">
-        <v>140.0787294782425</v>
-      </c>
-      <c r="AF43">
-        <v>145.0973945926501</v>
-      </c>
-      <c r="AG43">
-        <v>150.0581098026043</v>
-      </c>
-      <c r="AH43">
-        <v>154.8077356283012</v>
-      </c>
-      <c r="AI43">
-        <v>159.5763613813873</v>
-      </c>
-    </row>
-    <row r="44" spans="1:35">
-      <c r="A44" t="s">
-        <v>39</v>
-      </c>
-      <c r="B44" t="s">
-        <v>44</v>
-      </c>
-      <c r="C44" t="s">
-        <v>57</v>
-      </c>
-      <c r="D44" t="s">
-        <v>63</v>
-      </c>
-      <c r="E44" t="s">
-        <v>75</v>
-      </c>
-      <c r="F44">
-        <v>999</v>
-      </c>
-      <c r="G44">
-        <v>0</v>
-      </c>
-      <c r="H44">
-        <v>999</v>
-      </c>
-      <c r="I44">
-        <v>999</v>
-      </c>
-      <c r="J44">
-        <v>13.84131552913675</v>
-      </c>
-      <c r="K44">
-        <v>27.28492233369789</v>
-      </c>
-      <c r="L44">
-        <v>40.39968017976293</v>
-      </c>
-      <c r="M44">
-        <v>53.1769190495388</v>
-      </c>
-      <c r="N44">
-        <v>65.44642419007054</v>
-      </c>
-      <c r="O44">
-        <v>77.05150557094703</v>
-      </c>
-      <c r="P44">
-        <v>88.18275266292007</v>
-      </c>
-      <c r="Q44">
-        <v>99.07578706128113</v>
-      </c>
-      <c r="R44">
-        <v>109.4576431278145</v>
-      </c>
-      <c r="S44">
-        <v>119.3852936985219</v>
-      </c>
-      <c r="T44">
-        <v>128.9958581012217</v>
-      </c>
-      <c r="U44">
-        <v>138.4679370706598</v>
-      </c>
-      <c r="V44">
-        <v>147.5871508052558</v>
-      </c>
-      <c r="W44">
-        <v>156.2667351283769</v>
-      </c>
-      <c r="X44">
-        <v>164.6897374879804</v>
-      </c>
-      <c r="Y44">
-        <v>173.1699860865785</v>
-      </c>
-      <c r="Z44">
-        <v>181.6180987379033</v>
-      </c>
-      <c r="AA44">
-        <v>190.0314302968312</v>
-      </c>
-      <c r="AB44">
-        <v>198.2557672132194</v>
-      </c>
-      <c r="AC44">
-        <v>206.4391921070904</v>
-      </c>
-      <c r="AD44">
-        <v>214.6033566048945</v>
-      </c>
-      <c r="AE44">
-        <v>222.3975152129217</v>
-      </c>
-      <c r="AF44">
-        <v>230.248465268012</v>
-      </c>
-      <c r="AG44">
-        <v>238.0040376403803</v>
-      </c>
-      <c r="AH44">
-        <v>245.4328491772472</v>
-      </c>
-      <c r="AI44">
-        <v>252.8721242828404</v>
-      </c>
-    </row>
-    <row r="45" spans="1:35">
-      <c r="A45" t="s">
-        <v>39</v>
-      </c>
-      <c r="B45" t="s">
-        <v>40</v>
-      </c>
-      <c r="C45" t="s">
-        <v>57</v>
-      </c>
-      <c r="D45" t="s">
-        <v>63</v>
-      </c>
-      <c r="E45" t="s">
-        <v>75</v>
-      </c>
-      <c r="F45">
-        <v>999</v>
-      </c>
-      <c r="G45">
-        <v>0</v>
-      </c>
-      <c r="H45">
-        <v>999</v>
-      </c>
-      <c r="I45">
-        <v>999</v>
-      </c>
-      <c r="J45">
-        <v>8.656551993817555</v>
-      </c>
-      <c r="K45">
-        <v>17.06734211680925</v>
-      </c>
-      <c r="L45">
-        <v>25.27685810631404</v>
-      </c>
-      <c r="M45">
-        <v>33.2799407444819</v>
-      </c>
-      <c r="N45">
-        <v>40.96867923068972</v>
-      </c>
-      <c r="O45">
-        <v>48.24351630430263</v>
-      </c>
-      <c r="P45">
-        <v>55.22639721414291</v>
-      </c>
-      <c r="Q45">
-        <v>62.0716220522723</v>
-      </c>
-      <c r="R45">
-        <v>68.59696941741682</v>
-      </c>
-      <c r="S45">
-        <v>74.84526005886414</v>
-      </c>
-      <c r="T45">
-        <v>80.89921351459117</v>
-      </c>
-      <c r="U45">
-        <v>86.8728274251051</v>
-      </c>
-      <c r="V45">
-        <v>92.62984060038568</v>
-      </c>
-      <c r="W45">
-        <v>98.11462700673293</v>
-      </c>
-      <c r="X45">
-        <v>103.4420292969968</v>
-      </c>
-      <c r="Y45">
-        <v>108.8105736429513</v>
-      </c>
-      <c r="Z45">
-        <v>114.1619512235896</v>
-      </c>
-      <c r="AA45">
-        <v>119.4956777288478</v>
-      </c>
-      <c r="AB45">
-        <v>124.7117499604611</v>
-      </c>
-      <c r="AC45">
-        <v>129.9070749212455</v>
-      </c>
-      <c r="AD45">
-        <v>135.104202888532</v>
-      </c>
-      <c r="AE45">
-        <v>140.0787294782425</v>
-      </c>
-      <c r="AF45">
-        <v>145.09739459265</v>
-      </c>
-      <c r="AG45">
-        <v>150.0581098026043</v>
-      </c>
-      <c r="AH45">
-        <v>154.8077356283011</v>
-      </c>
-      <c r="AI45">
-        <v>159.5763613813871</v>
-      </c>
-    </row>
-    <row r="46" spans="1:35">
-      <c r="A46" t="s">
-        <v>39</v>
-      </c>
-      <c r="B46" t="s">
-        <v>41</v>
-      </c>
-      <c r="C46" t="s">
-        <v>57</v>
-      </c>
-      <c r="D46" t="s">
-        <v>63</v>
-      </c>
-      <c r="E46" t="s">
-        <v>75</v>
-      </c>
-      <c r="F46">
-        <v>999</v>
-      </c>
-      <c r="G46">
-        <v>0</v>
-      </c>
-      <c r="H46">
-        <v>999</v>
-      </c>
-      <c r="I46">
-        <v>999</v>
-      </c>
-      <c r="J46">
-        <v>13.84131552913665</v>
-      </c>
-      <c r="K46">
-        <v>27.28492233369778</v>
-      </c>
-      <c r="L46">
-        <v>40.39968017976293</v>
-      </c>
-      <c r="M46">
-        <v>53.17691904953872</v>
-      </c>
-      <c r="N46">
-        <v>65.44642419007067</v>
-      </c>
-      <c r="O46">
-        <v>77.05150557094697</v>
-      </c>
-      <c r="P46">
-        <v>88.18275266292017</v>
-      </c>
-      <c r="Q46">
-        <v>99.07578706128105</v>
-      </c>
-      <c r="R46">
-        <v>109.4576431278145</v>
-      </c>
-      <c r="S46">
-        <v>119.3852936985218</v>
-      </c>
-      <c r="T46">
-        <v>128.9958581012217</v>
-      </c>
-      <c r="U46">
-        <v>138.4679370706599</v>
-      </c>
-      <c r="V46">
-        <v>147.5871508052557</v>
-      </c>
-      <c r="W46">
-        <v>156.2667351283769</v>
-      </c>
-      <c r="X46">
-        <v>164.6897374879804</v>
-      </c>
-      <c r="Y46">
-        <v>173.1699860865786</v>
-      </c>
-      <c r="Z46">
-        <v>181.6180987379033</v>
-      </c>
-      <c r="AA46">
-        <v>190.031430296831</v>
-      </c>
-      <c r="AB46">
-        <v>198.2557672132194</v>
-      </c>
-      <c r="AC46">
-        <v>206.4391921070903</v>
-      </c>
-      <c r="AD46">
-        <v>214.6033566048945</v>
-      </c>
-      <c r="AE46">
-        <v>222.3975152129218</v>
-      </c>
-      <c r="AF46">
-        <v>230.2484652680119</v>
-      </c>
-      <c r="AG46">
-        <v>238.0040376403804</v>
-      </c>
-      <c r="AH46">
-        <v>245.4328491772473</v>
-      </c>
-      <c r="AI46">
-        <v>252.8721242828404</v>
       </c>
     </row>
   </sheetData>
@@ -5326,7 +4895,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AI46"/>
+  <dimension ref="A1:AI42"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5361,82 +4930,82 @@
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>100</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:35">
@@ -5444,85 +5013,85 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J2">
-        <v>168.173698</v>
+        <v>166.828318</v>
       </c>
       <c r="K2">
-        <v>164.021078</v>
+        <v>161.480484</v>
       </c>
       <c r="L2">
-        <v>159.625052</v>
+        <v>156.026638</v>
       </c>
       <c r="M2">
-        <v>155.86898</v>
+        <v>151.293543</v>
       </c>
       <c r="N2">
-        <v>152.658251</v>
+        <v>147.163357</v>
       </c>
       <c r="O2">
-        <v>149.983973</v>
+        <v>143.632648</v>
       </c>
       <c r="P2">
-        <v>147.986158</v>
+        <v>140.812333</v>
       </c>
       <c r="Q2">
-        <v>146.350971</v>
+        <v>138.37501</v>
       </c>
       <c r="R2">
-        <v>145.283956</v>
+        <v>136.496265</v>
       </c>
       <c r="S2">
-        <v>143.73138</v>
+        <v>134.21606</v>
       </c>
       <c r="T2">
-        <v>142.541706</v>
+        <v>132.295416</v>
       </c>
       <c r="U2">
-        <v>141.444205</v>
+        <v>130.493247</v>
       </c>
       <c r="V2">
-        <v>140.24817</v>
+        <v>128.650396</v>
       </c>
       <c r="W2">
-        <v>139.06574</v>
+        <v>126.827634</v>
       </c>
       <c r="X2">
-        <v>138.025396</v>
+        <v>125.148478</v>
       </c>
       <c r="Y2">
-        <v>137.002123</v>
+        <v>123.502551</v>
       </c>
       <c r="Z2">
-        <v>136.225243</v>
+        <v>122.077037</v>
       </c>
       <c r="AA2">
-        <v>135.422117</v>
+        <v>120.656591</v>
       </c>
       <c r="AB2">
-        <v>134.575964</v>
+        <v>119.228983</v>
       </c>
       <c r="AC2">
-        <v>133.556706</v>
+        <v>117.700556</v>
       </c>
       <c r="AD2">
-        <v>132.687615</v>
+        <v>116.275264</v>
       </c>
       <c r="AE2">
-        <v>131.60043</v>
+        <v>114.685092</v>
       </c>
       <c r="AF2">
-        <v>130.682495</v>
+        <v>113.263637</v>
       </c>
       <c r="AG2">
-        <v>129.796702</v>
+        <v>111.893176</v>
       </c>
       <c r="AH2">
-        <v>129.04449</v>
+        <v>110.651339</v>
       </c>
       <c r="AI2">
-        <v>128.137678</v>
+        <v>109.286627</v>
       </c>
     </row>
     <row r="3" spans="1:35">
@@ -5530,85 +5099,85 @@
         <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J3">
-        <v>167.454581</v>
+        <v>165.286281</v>
       </c>
       <c r="K3">
-        <v>162.567415</v>
+        <v>158.466726</v>
       </c>
       <c r="L3">
-        <v>157.428096</v>
+        <v>151.612311</v>
       </c>
       <c r="M3">
-        <v>152.898759</v>
+        <v>145.49898</v>
       </c>
       <c r="N3">
-        <v>148.904847</v>
+        <v>140.018138</v>
       </c>
       <c r="O3">
-        <v>145.439099</v>
+        <v>135.163129</v>
       </c>
       <c r="P3">
-        <v>142.652864</v>
+        <v>131.040765</v>
       </c>
       <c r="Q3">
-        <v>140.269748</v>
+        <v>127.350957</v>
       </c>
       <c r="R3">
-        <v>138.514531</v>
+        <v>124.282984</v>
       </c>
       <c r="S3">
-        <v>136.304425</v>
+        <v>120.900359</v>
       </c>
       <c r="T3">
-        <v>134.513422</v>
+        <v>117.932343</v>
       </c>
       <c r="U3">
-        <v>132.847724</v>
+        <v>115.126928</v>
       </c>
       <c r="V3">
-        <v>131.11909</v>
+        <v>112.340343</v>
       </c>
       <c r="W3">
-        <v>129.449995</v>
+        <v>109.637819</v>
       </c>
       <c r="X3">
-        <v>127.949189</v>
+        <v>107.1096</v>
       </c>
       <c r="Y3">
-        <v>126.50192</v>
+        <v>104.659127</v>
       </c>
       <c r="Z3">
-        <v>125.338685</v>
+        <v>102.454654</v>
       </c>
       <c r="AA3">
-        <v>124.159718</v>
+        <v>100.280895</v>
       </c>
       <c r="AB3">
-        <v>122.93831</v>
+        <v>98.12056699999999</v>
       </c>
       <c r="AC3">
-        <v>121.517106</v>
+        <v>95.871448</v>
       </c>
       <c r="AD3">
-        <v>120.304609</v>
+        <v>93.768956</v>
       </c>
       <c r="AE3">
-        <v>118.90941</v>
+        <v>91.570719</v>
       </c>
       <c r="AF3">
-        <v>117.676614</v>
+        <v>89.53361700000001</v>
       </c>
       <c r="AG3">
-        <v>116.474592</v>
+        <v>87.55431799999999</v>
       </c>
       <c r="AH3">
-        <v>115.424318</v>
+        <v>85.71715500000001</v>
       </c>
       <c r="AI3">
-        <v>114.241704</v>
+        <v>83.804609</v>
       </c>
     </row>
     <row r="4" spans="1:35">
@@ -5616,94 +5185,94 @@
         <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J4">
-        <v>0.71912</v>
+        <v>1.542037</v>
       </c>
       <c r="K4">
-        <v>1.453669</v>
+        <v>3.013765</v>
       </c>
       <c r="L4">
-        <v>2.196958</v>
+        <v>4.414328</v>
       </c>
       <c r="M4">
-        <v>2.970217</v>
+        <v>5.794561</v>
       </c>
       <c r="N4">
-        <v>3.753406</v>
+        <v>7.145220999999999</v>
       </c>
       <c r="O4">
-        <v>4.544874999999999</v>
+        <v>8.469518000000001</v>
       </c>
       <c r="P4">
-        <v>5.333291999999999</v>
+        <v>9.771564999999999</v>
       </c>
       <c r="Q4">
-        <v>6.081223</v>
+        <v>11.024052</v>
       </c>
       <c r="R4">
-        <v>6.769426000000001</v>
+        <v>12.21328</v>
       </c>
       <c r="S4">
-        <v>7.426956000000001</v>
+        <v>13.3157</v>
       </c>
       <c r="T4">
-        <v>8.028279999999999</v>
+        <v>14.363069</v>
       </c>
       <c r="U4">
-        <v>8.596484999999999</v>
+        <v>15.366324</v>
       </c>
       <c r="V4">
-        <v>9.129076999999999</v>
+        <v>16.310049</v>
       </c>
       <c r="W4">
-        <v>9.615744000000001</v>
+        <v>17.189812</v>
       </c>
       <c r="X4">
-        <v>10.076204</v>
+        <v>18.038875</v>
       </c>
       <c r="Y4">
-        <v>10.500203</v>
+        <v>18.843426</v>
       </c>
       <c r="Z4">
-        <v>10.886556</v>
+        <v>19.622383</v>
       </c>
       <c r="AA4">
-        <v>11.262397</v>
+        <v>20.375693</v>
       </c>
       <c r="AB4">
-        <v>11.637655</v>
+        <v>21.108415</v>
       </c>
       <c r="AC4">
-        <v>12.039604</v>
+        <v>21.829109</v>
       </c>
       <c r="AD4">
-        <v>12.383002</v>
+        <v>22.506304</v>
       </c>
       <c r="AE4">
-        <v>12.691022</v>
+        <v>23.114373</v>
       </c>
       <c r="AF4">
-        <v>13.005881</v>
+        <v>23.730021</v>
       </c>
       <c r="AG4">
-        <v>13.32211</v>
+        <v>24.33886</v>
       </c>
       <c r="AH4">
-        <v>13.620176</v>
+        <v>24.934188</v>
       </c>
       <c r="AI4">
-        <v>13.895973</v>
+        <v>25.482018</v>
       </c>
     </row>
     <row r="5" spans="1:35">
@@ -5711,94 +5280,94 @@
         <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J5">
-        <v>0.019166</v>
+        <v>0.048185</v>
       </c>
       <c r="K5">
-        <v>0.03844499999999999</v>
+        <v>0.09387999999999999</v>
       </c>
       <c r="L5">
-        <v>0.056924</v>
+        <v>0.13825</v>
       </c>
       <c r="M5">
-        <v>0.07565899999999999</v>
+        <v>0.182626</v>
       </c>
       <c r="N5">
-        <v>0.095307</v>
+        <v>0.225902</v>
       </c>
       <c r="O5">
-        <v>0.115319</v>
+        <v>0.268875</v>
       </c>
       <c r="P5">
-        <v>0.135879</v>
+        <v>0.310596</v>
       </c>
       <c r="Q5">
-        <v>0.155691</v>
+        <v>0.350723</v>
       </c>
       <c r="R5">
-        <v>0.173934</v>
+        <v>0.388579</v>
       </c>
       <c r="S5">
-        <v>0.1916</v>
+        <v>0.423577</v>
       </c>
       <c r="T5">
-        <v>0.208035</v>
+        <v>0.456406</v>
       </c>
       <c r="U5">
-        <v>0.223368</v>
+        <v>0.488272</v>
       </c>
       <c r="V5">
-        <v>0.2382110000000001</v>
+        <v>0.517939</v>
       </c>
       <c r="W5">
-        <v>0.25197</v>
+        <v>0.544934</v>
       </c>
       <c r="X5">
-        <v>0.265014</v>
+        <v>0.571804</v>
       </c>
       <c r="Y5">
-        <v>0.276754</v>
+        <v>0.597542</v>
       </c>
       <c r="Z5">
-        <v>0.2871679999999999</v>
+        <v>0.623686</v>
       </c>
       <c r="AA5">
-        <v>0.2978500000000001</v>
+        <v>0.646997</v>
       </c>
       <c r="AB5">
-        <v>0.3078419999999999</v>
+        <v>0.6710529999999999</v>
       </c>
       <c r="AC5">
-        <v>0.318175</v>
+        <v>0.693878</v>
       </c>
       <c r="AD5">
-        <v>0.326913</v>
+        <v>0.715852</v>
       </c>
       <c r="AE5">
-        <v>0.328292</v>
+        <v>0.724743</v>
       </c>
       <c r="AF5">
-        <v>0.33083</v>
+        <v>0.738158</v>
       </c>
       <c r="AG5">
-        <v>0.335892</v>
+        <v>0.756865</v>
       </c>
       <c r="AH5">
-        <v>0.343847</v>
+        <v>0.774699</v>
       </c>
       <c r="AI5">
-        <v>0.3516050000000001</v>
+        <v>0.7901940000000001</v>
       </c>
     </row>
     <row r="6" spans="1:35">
@@ -5806,94 +5375,94 @@
         <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J6">
-        <v>0.006788999999999996</v>
+        <v>0.031664</v>
       </c>
       <c r="K6">
-        <v>0.013788</v>
+        <v>0.062397</v>
       </c>
       <c r="L6">
-        <v>0.02076699999999999</v>
+        <v>0.09218799999999999</v>
       </c>
       <c r="M6">
-        <v>0.028701</v>
+        <v>0.12137</v>
       </c>
       <c r="N6">
-        <v>0.03986200000000001</v>
+        <v>0.148316</v>
       </c>
       <c r="O6">
-        <v>0.04999899999999999</v>
+        <v>0.17538</v>
       </c>
       <c r="P6">
-        <v>0.060586</v>
+        <v>0.201457</v>
       </c>
       <c r="Q6">
-        <v>0.06884700000000002</v>
+        <v>0.227284</v>
       </c>
       <c r="R6">
-        <v>0.07772600000000002</v>
+        <v>0.250615</v>
       </c>
       <c r="S6">
-        <v>0.08269999999999997</v>
+        <v>0.274203</v>
       </c>
       <c r="T6">
-        <v>0.08685300000000004</v>
+        <v>0.296492</v>
       </c>
       <c r="U6">
-        <v>0.09280899999999997</v>
+        <v>0.316669</v>
       </c>
       <c r="V6">
-        <v>0.101983</v>
+        <v>0.334152</v>
       </c>
       <c r="W6">
-        <v>0.116092</v>
+        <v>0.34782</v>
       </c>
       <c r="X6">
-        <v>0.122056</v>
+        <v>0.364816</v>
       </c>
       <c r="Y6">
-        <v>0.12753</v>
+        <v>0.380711</v>
       </c>
       <c r="Z6">
-        <v>0.129872</v>
+        <v>0.397053</v>
       </c>
       <c r="AA6">
-        <v>0.131683</v>
+        <v>0.412841</v>
       </c>
       <c r="AB6">
-        <v>0.1335220000000001</v>
+        <v>0.4284250000000001</v>
       </c>
       <c r="AC6">
-        <v>0.134803</v>
+        <v>0.444124</v>
       </c>
       <c r="AD6">
-        <v>0.1370040000000001</v>
+        <v>0.4585790000000001</v>
       </c>
       <c r="AE6">
-        <v>0.1398189999999999</v>
+        <v>0.472289</v>
       </c>
       <c r="AF6">
-        <v>0.13961</v>
+        <v>0.486563</v>
       </c>
       <c r="AG6">
-        <v>0.139562</v>
+        <v>0.500147</v>
       </c>
       <c r="AH6">
-        <v>0.140317</v>
+        <v>0.512885</v>
       </c>
       <c r="AI6">
-        <v>0.1400909999999999</v>
+        <v>0.5250199999999999</v>
       </c>
     </row>
     <row r="7" spans="1:35">
@@ -5901,94 +5470,94 @@
         <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J7">
-        <v>0.05107200000000001</v>
+        <v>0.08737500000000001</v>
       </c>
       <c r="K7">
-        <v>0.100784</v>
+        <v>0.172749</v>
       </c>
       <c r="L7">
-        <v>0.147654</v>
+        <v>0.254744</v>
       </c>
       <c r="M7">
-        <v>0.194596</v>
+        <v>0.336836</v>
       </c>
       <c r="N7">
-        <v>0.241944</v>
+        <v>0.4179</v>
       </c>
       <c r="O7">
-        <v>0.288741</v>
+        <v>0.496036</v>
       </c>
       <c r="P7">
-        <v>0.3357329999999999</v>
+        <v>0.571372</v>
       </c>
       <c r="Q7">
-        <v>0.3798870000000001</v>
+        <v>0.6438390000000001</v>
       </c>
       <c r="R7">
-        <v>0.4223480000000001</v>
+        <v>0.7138450000000001</v>
       </c>
       <c r="S7">
-        <v>0.462016</v>
+        <v>0.7794490000000001</v>
       </c>
       <c r="T7">
-        <v>0.498307</v>
+        <v>0.840483</v>
       </c>
       <c r="U7">
-        <v>0.533077</v>
+        <v>0.899524</v>
       </c>
       <c r="V7">
-        <v>0.5655460000000001</v>
+        <v>0.9555690000000001</v>
       </c>
       <c r="W7">
-        <v>0.595844</v>
+        <v>1.007933</v>
       </c>
       <c r="X7">
-        <v>0.6245430000000001</v>
+        <v>1.058998</v>
       </c>
       <c r="Y7">
-        <v>0.6508930000000001</v>
+        <v>1.106486</v>
       </c>
       <c r="Z7">
-        <v>0.6749180000000001</v>
+        <v>1.151682</v>
       </c>
       <c r="AA7">
-        <v>0.698594</v>
+        <v>1.196018</v>
       </c>
       <c r="AB7">
-        <v>0.720241</v>
+        <v>1.238815</v>
       </c>
       <c r="AC7">
-        <v>0.7422679999999999</v>
+        <v>1.280395</v>
       </c>
       <c r="AD7">
-        <v>0.7617570000000002</v>
+        <v>1.319003</v>
       </c>
       <c r="AE7">
-        <v>0.759763</v>
+        <v>1.330919</v>
       </c>
       <c r="AF7">
-        <v>0.7653200000000001</v>
+        <v>1.350038</v>
       </c>
       <c r="AG7">
-        <v>0.7780309999999997</v>
+        <v>1.377953</v>
       </c>
       <c r="AH7">
-        <v>0.7947740000000001</v>
+        <v>1.410692</v>
       </c>
       <c r="AI7">
-        <v>0.81077</v>
+        <v>1.442355</v>
       </c>
     </row>
     <row r="8" spans="1:35">
@@ -5996,94 +5565,94 @@
         <v>35</v>
       </c>
       <c r="B8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J8">
-        <v>-0.002176000000000001</v>
+        <v>0.0248</v>
       </c>
       <c r="K8">
-        <v>-0.003672000000000002</v>
+        <v>0.04782699999999999</v>
       </c>
       <c r="L8">
-        <v>-0.003853999999999996</v>
+        <v>0.067928</v>
       </c>
       <c r="M8">
-        <v>-0.002385000000000012</v>
+        <v>0.08592899999999999</v>
       </c>
       <c r="N8">
-        <v>-0.002081</v>
+        <v>0.106269</v>
       </c>
       <c r="O8">
-        <v>-0.0005079999999999807</v>
+        <v>0.124811</v>
       </c>
       <c r="P8">
-        <v>0.0004719999999999724</v>
+        <v>0.144319</v>
       </c>
       <c r="Q8">
-        <v>0.001024000000000025</v>
+        <v>0.163255</v>
       </c>
       <c r="R8">
-        <v>0.0005650000000000099</v>
+        <v>0.181498</v>
       </c>
       <c r="S8">
-        <v>0.0004389999999999949</v>
+        <v>0.198006</v>
       </c>
       <c r="T8">
-        <v>-0.0001010000000000177</v>
+        <v>0.213543</v>
       </c>
       <c r="U8">
-        <v>-0.001131999999999994</v>
+        <v>0.228541</v>
       </c>
       <c r="V8">
-        <v>-0.002162999999999998</v>
+        <v>0.242365</v>
       </c>
       <c r="W8">
-        <v>-0.005931999999999993</v>
+        <v>0.258423</v>
       </c>
       <c r="X8">
-        <v>-0.007798999999999945</v>
+        <v>0.271052</v>
       </c>
       <c r="Y8">
-        <v>-0.01121</v>
+        <v>0.284176</v>
       </c>
       <c r="Z8">
-        <v>-0.01457700000000001</v>
+        <v>0.296149</v>
       </c>
       <c r="AA8">
-        <v>-0.01793399999999995</v>
+        <v>0.307584</v>
       </c>
       <c r="AB8">
-        <v>-0.02148899999999998</v>
+        <v>0.319041</v>
       </c>
       <c r="AC8">
-        <v>-0.02487100000000003</v>
+        <v>0.330082</v>
       </c>
       <c r="AD8">
-        <v>-0.02856800000000004</v>
+        <v>0.340718</v>
       </c>
       <c r="AE8">
-        <v>-0.03318900000000002</v>
+        <v>0.351787</v>
       </c>
       <c r="AF8">
-        <v>-0.03769600000000001</v>
+        <v>0.362241</v>
       </c>
       <c r="AG8">
-        <v>-0.042209</v>
+        <v>0.372252</v>
       </c>
       <c r="AH8">
-        <v>-0.04675699999999999</v>
+        <v>0.381774</v>
       </c>
       <c r="AI8">
-        <v>-0.050979</v>
+        <v>0.390375</v>
       </c>
     </row>
     <row r="9" spans="1:35">
@@ -6091,94 +5660,94 @@
         <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J9">
-        <v>0.08311300000000001</v>
+        <v>0.187689</v>
       </c>
       <c r="K9">
-        <v>0.166815</v>
+        <v>0.365533</v>
       </c>
       <c r="L9">
-        <v>0.249826</v>
+        <v>0.534591</v>
       </c>
       <c r="M9">
-        <v>0.335722</v>
+        <v>0.697642</v>
       </c>
       <c r="N9">
-        <v>0.424948</v>
+        <v>0.855915</v>
       </c>
       <c r="O9">
-        <v>0.514478</v>
+        <v>1.016608</v>
       </c>
       <c r="P9">
-        <v>0.6032279999999999</v>
+        <v>1.17815</v>
       </c>
       <c r="Q9">
-        <v>0.6891400000000001</v>
+        <v>1.332162</v>
       </c>
       <c r="R9">
-        <v>0.7669270000000002</v>
+        <v>1.483649</v>
       </c>
       <c r="S9">
-        <v>0.8421349999999999</v>
+        <v>1.621916</v>
       </c>
       <c r="T9">
-        <v>0.91133</v>
+        <v>1.754578</v>
       </c>
       <c r="U9">
-        <v>0.975867</v>
+        <v>1.883173</v>
       </c>
       <c r="V9">
-        <v>1.036839</v>
+        <v>2.006618</v>
       </c>
       <c r="W9">
-        <v>1.096586</v>
+        <v>2.103826</v>
       </c>
       <c r="X9">
-        <v>1.152819</v>
+        <v>2.211367</v>
       </c>
       <c r="Y9">
-        <v>1.204758</v>
+        <v>2.31284</v>
       </c>
       <c r="Z9">
-        <v>1.251276</v>
+        <v>2.41351</v>
       </c>
       <c r="AA9">
-        <v>1.297365</v>
+        <v>2.512899</v>
       </c>
       <c r="AB9">
-        <v>1.344926</v>
+        <v>2.607644</v>
       </c>
       <c r="AC9">
-        <v>1.391114</v>
+        <v>2.704398</v>
       </c>
       <c r="AD9">
-        <v>1.438716</v>
+        <v>2.792476</v>
       </c>
       <c r="AE9">
-        <v>1.48341</v>
+        <v>2.878117</v>
       </c>
       <c r="AF9">
-        <v>1.524137</v>
+        <v>2.965536</v>
       </c>
       <c r="AG9">
-        <v>1.565679</v>
+        <v>3.050111</v>
       </c>
       <c r="AH9">
-        <v>1.606117</v>
+        <v>3.131538</v>
       </c>
       <c r="AI9">
-        <v>1.648406</v>
+        <v>3.204159</v>
       </c>
     </row>
     <row r="10" spans="1:35">
@@ -6186,94 +5755,94 @@
         <v>35</v>
       </c>
       <c r="B10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J10">
-        <v>0.018752</v>
+        <v>0.078236</v>
       </c>
       <c r="K10">
-        <v>0.04108400000000002</v>
+        <v>0.151465</v>
       </c>
       <c r="L10">
-        <v>0.06803699999999999</v>
+        <v>0.21963</v>
       </c>
       <c r="M10">
-        <v>0.09939300000000004</v>
+        <v>0.284622</v>
       </c>
       <c r="N10">
-        <v>0.1335300000000001</v>
+        <v>0.3487130000000001</v>
       </c>
       <c r="O10">
-        <v>0.171866</v>
+        <v>0.4085259999999999</v>
       </c>
       <c r="P10">
-        <v>0.207199</v>
+        <v>0.469071</v>
       </c>
       <c r="Q10">
-        <v>0.237005</v>
+        <v>0.529648</v>
       </c>
       <c r="R10">
-        <v>0.263493</v>
+        <v>0.587865</v>
       </c>
       <c r="S10">
-        <v>0.289672</v>
+        <v>0.641282</v>
       </c>
       <c r="T10">
-        <v>0.3127159999999999</v>
+        <v>0.6932259999999999</v>
       </c>
       <c r="U10">
-        <v>0.331374</v>
+        <v>0.744796</v>
       </c>
       <c r="V10">
-        <v>0.347196</v>
+        <v>0.795009</v>
       </c>
       <c r="W10">
-        <v>0.3677050000000001</v>
+        <v>0.840859</v>
       </c>
       <c r="X10">
-        <v>0.3884520000000001</v>
+        <v>0.8823650000000001</v>
       </c>
       <c r="Y10">
-        <v>0.4037959999999999</v>
+        <v>0.9241349999999999</v>
       </c>
       <c r="Z10">
-        <v>0.4182260000000001</v>
+        <v>0.9636170000000001</v>
       </c>
       <c r="AA10">
-        <v>0.431652</v>
+        <v>1.002383</v>
       </c>
       <c r="AB10">
-        <v>0.447153</v>
+        <v>1.039776</v>
       </c>
       <c r="AC10">
-        <v>0.457808</v>
+        <v>1.078468</v>
       </c>
       <c r="AD10">
-        <v>0.467736</v>
+        <v>1.11632</v>
       </c>
       <c r="AE10">
-        <v>0.4788869999999998</v>
+        <v>1.151117</v>
       </c>
       <c r="AF10">
-        <v>0.4906409999999999</v>
+        <v>1.183855</v>
       </c>
       <c r="AG10">
-        <v>0.5001149999999999</v>
+        <v>1.218033</v>
       </c>
       <c r="AH10">
-        <v>0.5067570000000001</v>
+        <v>1.251545</v>
       </c>
       <c r="AI10">
-        <v>0.5045919999999999</v>
+        <v>1.288081</v>
       </c>
     </row>
     <row r="11" spans="1:35">
@@ -6281,94 +5850,94 @@
         <v>35</v>
       </c>
       <c r="B11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J11">
-        <v>0.232265</v>
+        <v>0.42709</v>
       </c>
       <c r="K11">
-        <v>0.4608639999999999</v>
+        <v>0.8415549999999999</v>
       </c>
       <c r="L11">
-        <v>0.6844379999999998</v>
+        <v>1.243139</v>
       </c>
       <c r="M11">
-        <v>0.914876</v>
+        <v>1.642871</v>
       </c>
       <c r="N11">
-        <v>1.147788</v>
+        <v>2.032256</v>
       </c>
       <c r="O11">
-        <v>1.383256</v>
+        <v>2.407398</v>
       </c>
       <c r="P11">
-        <v>1.616944</v>
+        <v>2.779761</v>
       </c>
       <c r="Q11">
-        <v>1.839744</v>
+        <v>3.139169</v>
       </c>
       <c r="R11">
-        <v>2.047534</v>
+        <v>3.473243</v>
       </c>
       <c r="S11">
-        <v>2.246055</v>
+        <v>3.781801</v>
       </c>
       <c r="T11">
-        <v>2.430707</v>
+        <v>4.07521</v>
       </c>
       <c r="U11">
-        <v>2.601372</v>
+        <v>4.361368</v>
       </c>
       <c r="V11">
-        <v>2.760647</v>
+        <v>4.628152</v>
       </c>
       <c r="W11">
-        <v>2.901312999999999</v>
+        <v>4.886870999999999</v>
       </c>
       <c r="X11">
-        <v>3.03735</v>
+        <v>5.126693</v>
       </c>
       <c r="Y11">
-        <v>3.162108</v>
+        <v>5.358085</v>
       </c>
       <c r="Z11">
-        <v>3.279286</v>
+        <v>5.577236</v>
       </c>
       <c r="AA11">
-        <v>3.394552</v>
+        <v>5.787896</v>
       </c>
       <c r="AB11">
-        <v>3.509019000000001</v>
+        <v>5.996109000000001</v>
       </c>
       <c r="AC11">
-        <v>3.624225</v>
+        <v>6.203006</v>
       </c>
       <c r="AD11">
-        <v>3.731808000000001</v>
+        <v>6.392326000000001</v>
       </c>
       <c r="AE11">
-        <v>3.835115</v>
+        <v>6.574623</v>
       </c>
       <c r="AF11">
-        <v>3.939177</v>
+        <v>6.755052</v>
       </c>
       <c r="AG11">
-        <v>4.047871000000001</v>
+        <v>6.925495000000001</v>
       </c>
       <c r="AH11">
-        <v>4.143190000000001</v>
+        <v>7.096196</v>
       </c>
       <c r="AI11">
-        <v>4.234835</v>
+        <v>7.246082</v>
       </c>
     </row>
     <row r="12" spans="1:35">
@@ -6376,94 +5945,94 @@
         <v>35</v>
       </c>
       <c r="B12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J12">
-        <v>0.05406600000000001</v>
+        <v>0.106438</v>
       </c>
       <c r="K12">
-        <v>0.11043</v>
+        <v>0.205915</v>
       </c>
       <c r="L12">
-        <v>0.166299</v>
+        <v>0.300954</v>
       </c>
       <c r="M12">
-        <v>0.224745</v>
+        <v>0.393262</v>
       </c>
       <c r="N12">
-        <v>0.2821190000000001</v>
+        <v>0.4853390000000001</v>
       </c>
       <c r="O12">
-        <v>0.339498</v>
+        <v>0.575259</v>
       </c>
       <c r="P12">
-        <v>0.396932</v>
+        <v>0.661304</v>
       </c>
       <c r="Q12">
-        <v>0.452048</v>
+        <v>0.743058</v>
       </c>
       <c r="R12">
-        <v>0.498785</v>
+        <v>0.823536</v>
       </c>
       <c r="S12">
-        <v>0.541642</v>
+        <v>0.900801</v>
       </c>
       <c r="T12">
-        <v>0.582716</v>
+        <v>0.9726590000000001</v>
       </c>
       <c r="U12">
-        <v>0.6233979999999999</v>
+        <v>1.03921</v>
       </c>
       <c r="V12">
-        <v>0.6706659999999999</v>
+        <v>1.094464</v>
       </c>
       <c r="W12">
-        <v>0.7032950000000002</v>
+        <v>1.157039</v>
       </c>
       <c r="X12">
-        <v>0.7353189999999999</v>
+        <v>1.216289</v>
       </c>
       <c r="Y12">
-        <v>0.7652970000000001</v>
+        <v>1.271678</v>
       </c>
       <c r="Z12">
-        <v>0.7891519999999999</v>
+        <v>1.328218</v>
       </c>
       <c r="AA12">
-        <v>0.8158299999999998</v>
+        <v>1.379831</v>
       </c>
       <c r="AB12">
-        <v>0.844377</v>
+        <v>1.429788</v>
       </c>
       <c r="AC12">
-        <v>0.870414</v>
+        <v>1.479158</v>
       </c>
       <c r="AD12">
-        <v>0.8945609999999998</v>
+        <v>1.527392</v>
       </c>
       <c r="AE12">
-        <v>0.9199630000000002</v>
+        <v>1.570924</v>
       </c>
       <c r="AF12">
-        <v>0.9389949999999999</v>
+        <v>1.617546</v>
       </c>
       <c r="AG12">
-        <v>0.962064</v>
+        <v>1.658778</v>
       </c>
       <c r="AH12">
-        <v>0.9830919999999999</v>
+        <v>1.700301</v>
       </c>
       <c r="AI12">
-        <v>1.000921</v>
+        <v>1.741378</v>
       </c>
     </row>
     <row r="13" spans="1:35">
@@ -6471,94 +6040,94 @@
         <v>35</v>
       </c>
       <c r="B13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J13">
-        <v>0.006549999999999999</v>
+        <v>0.020234</v>
       </c>
       <c r="K13">
-        <v>0.013776</v>
+        <v>0.039986</v>
       </c>
       <c r="L13">
-        <v>0.024351</v>
+        <v>0.05866300000000001</v>
       </c>
       <c r="M13">
-        <v>0.035962</v>
+        <v>0.077059</v>
       </c>
       <c r="N13">
-        <v>0.046142</v>
+        <v>0.095453</v>
       </c>
       <c r="O13">
-        <v>0.05508200000000001</v>
+        <v>0.113629</v>
       </c>
       <c r="P13">
-        <v>0.065743</v>
+        <v>0.130988</v>
       </c>
       <c r="Q13">
-        <v>0.07608100000000001</v>
+        <v>0.147568</v>
       </c>
       <c r="R13">
-        <v>0.087354</v>
+        <v>0.162941</v>
       </c>
       <c r="S13">
-        <v>0.09489799999999998</v>
+        <v>0.177862</v>
       </c>
       <c r="T13">
-        <v>0.10151</v>
+        <v>0.192066</v>
       </c>
       <c r="U13">
-        <v>0.108259</v>
+        <v>0.205676</v>
       </c>
       <c r="V13">
-        <v>0.114037</v>
+        <v>0.218864</v>
       </c>
       <c r="W13">
-        <v>0.118953</v>
+        <v>0.231314</v>
       </c>
       <c r="X13">
-        <v>0.124415</v>
+        <v>0.243307</v>
       </c>
       <c r="Y13">
-        <v>0.127596</v>
+        <v>0.254973</v>
       </c>
       <c r="Z13">
-        <v>0.130609</v>
+        <v>0.266149</v>
       </c>
       <c r="AA13">
-        <v>0.134089</v>
+        <v>0.276797</v>
       </c>
       <c r="AB13">
-        <v>0.135713</v>
+        <v>0.287706</v>
       </c>
       <c r="AC13">
-        <v>0.138904</v>
+        <v>0.298249</v>
       </c>
       <c r="AD13">
-        <v>0.141338</v>
+        <v>0.30841</v>
       </c>
       <c r="AE13">
-        <v>0.137057</v>
+        <v>0.319375</v>
       </c>
       <c r="AF13">
-        <v>0.1393199999999999</v>
+        <v>0.328838</v>
       </c>
       <c r="AG13">
-        <v>0.141553</v>
+        <v>0.33799</v>
       </c>
       <c r="AH13">
-        <v>0.138368</v>
+        <v>0.34787</v>
       </c>
       <c r="AI13">
-        <v>0.140099</v>
+        <v>0.356234</v>
       </c>
     </row>
     <row r="14" spans="1:35">
@@ -6566,94 +6135,94 @@
         <v>35</v>
       </c>
       <c r="B14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J14">
-        <v>0.116806</v>
+        <v>0.300322</v>
       </c>
       <c r="K14">
-        <v>0.24794</v>
+        <v>0.579105</v>
       </c>
       <c r="L14">
-        <v>0.390283</v>
+        <v>0.83352</v>
       </c>
       <c r="M14">
-        <v>0.5366039999999999</v>
+        <v>1.081651</v>
       </c>
       <c r="N14">
-        <v>0.682751</v>
+        <v>1.32212</v>
       </c>
       <c r="O14">
-        <v>0.8303189999999999</v>
+        <v>1.562625</v>
       </c>
       <c r="P14">
-        <v>0.9786169999999996</v>
+        <v>1.796498</v>
       </c>
       <c r="Q14">
-        <v>1.119997</v>
+        <v>2.021051</v>
       </c>
       <c r="R14">
-        <v>1.246989</v>
+        <v>2.234598</v>
       </c>
       <c r="S14">
-        <v>1.37608</v>
+        <v>2.426496</v>
       </c>
       <c r="T14">
-        <v>1.487942</v>
+        <v>2.61118</v>
       </c>
       <c r="U14">
-        <v>1.596424</v>
+        <v>2.786473</v>
       </c>
       <c r="V14">
-        <v>1.689884</v>
+        <v>2.955296</v>
       </c>
       <c r="W14">
-        <v>1.777448</v>
+        <v>3.11051</v>
       </c>
       <c r="X14">
-        <v>1.859957</v>
+        <v>3.260936</v>
       </c>
       <c r="Y14">
-        <v>1.941657</v>
+        <v>3.395596</v>
       </c>
       <c r="Z14">
-        <v>2.01746</v>
+        <v>3.527612</v>
       </c>
       <c r="AA14">
-        <v>2.084779</v>
+        <v>3.659051</v>
       </c>
       <c r="AB14">
-        <v>2.152799</v>
+        <v>3.784581</v>
       </c>
       <c r="AC14">
-        <v>2.25154</v>
+        <v>3.899508</v>
       </c>
       <c r="AD14">
-        <v>2.31126</v>
+        <v>4.013415</v>
       </c>
       <c r="AE14">
-        <v>2.377781</v>
+        <v>4.119091</v>
       </c>
       <c r="AF14">
-        <v>2.447760999999999</v>
+        <v>4.221375999999999</v>
       </c>
       <c r="AG14">
-        <v>2.500726</v>
+        <v>4.321139000000001</v>
       </c>
       <c r="AH14">
-        <v>2.556981</v>
+        <v>4.412932</v>
       </c>
       <c r="AI14">
-        <v>2.609178</v>
+        <v>4.499178</v>
       </c>
     </row>
     <row r="15" spans="1:35">
@@ -6661,94 +6230,94 @@
         <v>35</v>
       </c>
       <c r="B15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J15">
-        <v>0.132717</v>
+        <v>0.230004</v>
       </c>
       <c r="K15">
-        <v>0.263415</v>
+        <v>0.453353</v>
       </c>
       <c r="L15">
-        <v>0.392233</v>
+        <v>0.670721</v>
       </c>
       <c r="M15">
-        <v>0.5263439999999999</v>
+        <v>0.890693</v>
       </c>
       <c r="N15">
-        <v>0.6610960000000001</v>
+        <v>1.107038</v>
       </c>
       <c r="O15">
-        <v>0.796825</v>
+        <v>1.320371</v>
       </c>
       <c r="P15">
-        <v>0.9319590000000001</v>
+        <v>1.528049</v>
       </c>
       <c r="Q15">
-        <v>1.061759</v>
+        <v>1.726295</v>
       </c>
       <c r="R15">
-        <v>1.183771</v>
+        <v>1.912911</v>
       </c>
       <c r="S15">
-        <v>1.299719</v>
+        <v>2.090307</v>
       </c>
       <c r="T15">
-        <v>1.408265</v>
+        <v>2.257226</v>
       </c>
       <c r="U15">
-        <v>1.511669</v>
+        <v>2.412622</v>
       </c>
       <c r="V15">
-        <v>1.606231</v>
+        <v>2.561621</v>
       </c>
       <c r="W15">
-        <v>1.69247</v>
+        <v>2.700283</v>
       </c>
       <c r="X15">
-        <v>1.774078</v>
+        <v>2.831248</v>
       </c>
       <c r="Y15">
-        <v>1.851024</v>
+        <v>2.957204</v>
       </c>
       <c r="Z15">
-        <v>1.923166</v>
+        <v>3.077471</v>
       </c>
       <c r="AA15">
-        <v>1.993937</v>
+        <v>3.193396</v>
       </c>
       <c r="AB15">
-        <v>2.063552</v>
+        <v>3.305477</v>
       </c>
       <c r="AC15">
-        <v>2.135224</v>
+        <v>3.417843</v>
       </c>
       <c r="AD15">
-        <v>2.200477</v>
+        <v>3.521813</v>
       </c>
       <c r="AE15">
-        <v>2.264124</v>
+        <v>3.621388</v>
       </c>
       <c r="AF15">
-        <v>2.327786</v>
+        <v>3.720818</v>
       </c>
       <c r="AG15">
-        <v>2.392826</v>
+        <v>3.820097</v>
       </c>
       <c r="AH15">
-        <v>2.45349</v>
+        <v>3.913756</v>
       </c>
       <c r="AI15">
-        <v>2.506455</v>
+        <v>3.998962</v>
       </c>
     </row>
     <row r="16" spans="1:35">
@@ -6756,94 +6325,94 @@
         <v>35</v>
       </c>
       <c r="B16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J16">
-        <v>-0.8229169999999999</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>-1.560096</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>-2.21737</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>-2.824344</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>-3.391815</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>-3.924643</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>-4.438273000000001</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>-4.942829</v>
+        <v>0</v>
       </c>
       <c r="R16">
-        <v>-5.443854</v>
+        <v>0</v>
       </c>
       <c r="S16">
-        <v>-5.888744</v>
+        <v>0</v>
       </c>
       <c r="T16">
-        <v>-6.334789</v>
+        <v>0</v>
       </c>
       <c r="U16">
-        <v>-6.769839</v>
+        <v>0</v>
       </c>
       <c r="V16">
-        <v>-7.180972000000001</v>
+        <v>0</v>
       </c>
       <c r="W16">
-        <v>-7.574067999999998</v>
+        <v>0</v>
       </c>
       <c r="X16">
-        <v>-7.962671</v>
+        <v>0</v>
       </c>
       <c r="Y16">
-        <v>-8.343223</v>
+        <v>0</v>
       </c>
       <c r="Z16">
-        <v>-8.735826999999999</v>
+        <v>0</v>
       </c>
       <c r="AA16">
-        <v>-9.113296</v>
+        <v>0</v>
       </c>
       <c r="AB16">
-        <v>-9.47076</v>
+        <v>0</v>
       </c>
       <c r="AC16">
-        <v>-9.789505</v>
+        <v>0</v>
       </c>
       <c r="AD16">
-        <v>-10.123302</v>
+        <v>0</v>
       </c>
       <c r="AE16">
-        <v>-10.423351</v>
+        <v>0</v>
       </c>
       <c r="AF16">
-        <v>-10.72414</v>
+        <v>0</v>
       </c>
       <c r="AG16">
-        <v>-11.01675</v>
+        <v>0</v>
       </c>
       <c r="AH16">
-        <v>-11.314012</v>
+        <v>0</v>
       </c>
       <c r="AI16">
-        <v>-11.586045</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:35">
@@ -6851,16 +6420,16 @@
         <v>35</v>
       </c>
       <c r="B17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J17">
         <v>0.357693</v>
@@ -6946,16 +6515,16 @@
         <v>35</v>
       </c>
       <c r="B18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J18">
         <v>0.8066230000000002</v>
@@ -7041,16 +6610,16 @@
         <v>35</v>
       </c>
       <c r="B19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J19">
         <v>0.377721</v>
@@ -7136,16 +6705,16 @@
         <v>35</v>
       </c>
       <c r="B20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -7231,16 +6800,16 @@
         <v>35</v>
       </c>
       <c r="B21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -7326,94 +6895,94 @@
         <v>35</v>
       </c>
       <c r="B22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E22" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J22">
-        <v>0.8630509999999999</v>
+        <v>1.585263</v>
       </c>
       <c r="K22">
-        <v>1.706147</v>
+        <v>3.088703</v>
       </c>
       <c r="L22">
-        <v>2.526391</v>
+        <v>4.511548</v>
       </c>
       <c r="M22">
-        <v>3.363423</v>
+        <v>5.911111</v>
       </c>
       <c r="N22">
-        <v>4.210326</v>
+        <v>7.282511</v>
       </c>
       <c r="O22">
-        <v>5.059422</v>
+        <v>8.626626999999999</v>
       </c>
       <c r="P22">
-        <v>5.910473</v>
+        <v>9.951682</v>
       </c>
       <c r="Q22">
-        <v>6.721957</v>
+        <v>11.225071</v>
       </c>
       <c r="R22">
-        <v>7.478964999999999</v>
+        <v>12.434392</v>
       </c>
       <c r="S22">
-        <v>8.194713999999999</v>
+        <v>13.550772</v>
       </c>
       <c r="T22">
-        <v>8.862907</v>
+        <v>14.613543</v>
       </c>
       <c r="U22">
-        <v>9.490103999999999</v>
+        <v>15.627557</v>
       </c>
       <c r="V22">
-        <v>10.081522</v>
+        <v>16.587016</v>
       </c>
       <c r="W22">
-        <v>10.62807</v>
+        <v>17.479439</v>
       </c>
       <c r="X22">
-        <v>11.145872</v>
+        <v>18.336768</v>
       </c>
       <c r="Y22">
-        <v>11.628193</v>
+        <v>19.150342</v>
       </c>
       <c r="Z22">
-        <v>12.080669</v>
+        <v>19.937992</v>
       </c>
       <c r="AA22">
-        <v>12.520428</v>
+        <v>20.699852</v>
       </c>
       <c r="AB22">
-        <v>12.951611</v>
+        <v>21.437378</v>
       </c>
       <c r="AC22">
-        <v>13.381209</v>
+        <v>22.15403</v>
       </c>
       <c r="AD22">
-        <v>13.779227</v>
+        <v>22.83519</v>
       </c>
       <c r="AE22">
-        <v>14.132134</v>
+        <v>23.440641</v>
       </c>
       <c r="AF22">
-        <v>14.492554</v>
+        <v>24.056886</v>
       </c>
       <c r="AG22">
-        <v>14.856815</v>
+        <v>24.668502</v>
       </c>
       <c r="AH22">
-        <v>15.214639</v>
+        <v>25.269607</v>
       </c>
       <c r="AI22">
-        <v>15.542172</v>
+        <v>25.819722</v>
       </c>
     </row>
     <row r="23" spans="1:35">
@@ -7421,94 +6990,94 @@
         <v>35</v>
       </c>
       <c r="B23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E23" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J23">
-        <v>-0.143931</v>
+        <v>-0.04322600000000001</v>
       </c>
       <c r="K23">
-        <v>-0.252478</v>
+        <v>-0.07493799999999999</v>
       </c>
       <c r="L23">
-        <v>-0.329433</v>
+        <v>-0.09721999999999997</v>
       </c>
       <c r="M23">
-        <v>-0.3932059999999999</v>
+        <v>-0.11655</v>
       </c>
       <c r="N23">
-        <v>-0.45692</v>
+        <v>-0.13729</v>
       </c>
       <c r="O23">
-        <v>-0.514547</v>
+        <v>-0.157109</v>
       </c>
       <c r="P23">
-        <v>-0.5771810000000001</v>
+        <v>-0.180117</v>
       </c>
       <c r="Q23">
-        <v>-0.640734</v>
+        <v>-0.201019</v>
       </c>
       <c r="R23">
-        <v>-0.709539</v>
+        <v>-0.221112</v>
       </c>
       <c r="S23">
-        <v>-0.7677579999999999</v>
+        <v>-0.235072</v>
       </c>
       <c r="T23">
-        <v>-0.834627</v>
+        <v>-0.250474</v>
       </c>
       <c r="U23">
-        <v>-0.8936189999999999</v>
+        <v>-0.2612329999999999</v>
       </c>
       <c r="V23">
-        <v>-0.9524449999999999</v>
+        <v>-0.276967</v>
       </c>
       <c r="W23">
-        <v>-1.012326</v>
+        <v>-0.2896269999999999</v>
       </c>
       <c r="X23">
-        <v>-1.069668</v>
+        <v>-0.297893</v>
       </c>
       <c r="Y23">
-        <v>-1.12799</v>
+        <v>-0.306916</v>
       </c>
       <c r="Z23">
-        <v>-1.194113</v>
+        <v>-0.315609</v>
       </c>
       <c r="AA23">
-        <v>-1.258031</v>
+        <v>-0.324159</v>
       </c>
       <c r="AB23">
-        <v>-1.313956</v>
+        <v>-0.3289629999999999</v>
       </c>
       <c r="AC23">
-        <v>-1.341605</v>
+        <v>-0.324921</v>
       </c>
       <c r="AD23">
-        <v>-1.396225</v>
+        <v>-0.328886</v>
       </c>
       <c r="AE23">
-        <v>-1.441112</v>
+        <v>-0.326268</v>
       </c>
       <c r="AF23">
-        <v>-1.486673</v>
+        <v>-0.3268649999999999</v>
       </c>
       <c r="AG23">
-        <v>-1.534705</v>
+        <v>-0.329642</v>
       </c>
       <c r="AH23">
-        <v>-1.594463</v>
+        <v>-0.3354189999999999</v>
       </c>
       <c r="AI23">
-        <v>-1.646199</v>
+        <v>-0.3377039999999999</v>
       </c>
     </row>
     <row r="24" spans="1:35">
@@ -7516,16 +7085,16 @@
         <v>35</v>
       </c>
       <c r="B24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -7611,16 +7180,16 @@
         <v>35</v>
       </c>
       <c r="B25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E25" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -7706,16 +7275,16 @@
         <v>35</v>
       </c>
       <c r="B26" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E26" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J26">
         <v>0</v>
@@ -7801,16 +7370,16 @@
         <v>35</v>
       </c>
       <c r="B27" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E27" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J27">
         <v>0</v>
@@ -7896,16 +7465,16 @@
         <v>35</v>
       </c>
       <c r="B28" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E28" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J28">
         <v>0</v>
@@ -7991,16 +7560,16 @@
         <v>35</v>
       </c>
       <c r="B29" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E29" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J29">
         <v>0</v>
@@ -8086,16 +7655,16 @@
         <v>35</v>
       </c>
       <c r="B30" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E30" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J30">
         <v>0</v>
@@ -8181,16 +7750,16 @@
         <v>36</v>
       </c>
       <c r="B31" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C31" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D31" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E31" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F31">
         <v>0.2649</v>
@@ -8288,16 +7857,16 @@
         <v>36</v>
       </c>
       <c r="B32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C32" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D32" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E32" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F32">
         <v>0.2649</v>
@@ -8395,16 +7964,16 @@
         <v>36</v>
       </c>
       <c r="B33" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C33" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D33" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E33" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F33">
         <v>0.2649</v>
@@ -8502,16 +8071,16 @@
         <v>36</v>
       </c>
       <c r="B34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C34" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D34" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E34" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F34">
         <v>0.2649</v>
@@ -8609,16 +8178,16 @@
         <v>37</v>
       </c>
       <c r="B35" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C35" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D35" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E35" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F35">
         <v>20.5893</v>
@@ -8716,16 +8285,16 @@
         <v>37</v>
       </c>
       <c r="B36" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C36" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D36" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E36" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F36">
         <v>20.5893</v>
@@ -8823,16 +8392,16 @@
         <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C37" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D37" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E37" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F37">
         <v>20.5893</v>
@@ -8930,16 +8499,16 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C38" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D38" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E38" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F38">
         <v>20.5893</v>
@@ -9037,16 +8606,16 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C39" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D39" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E39" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F39">
         <v>2.1032</v>
@@ -9144,16 +8713,16 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C40" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D40" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E40" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F40">
         <v>2.1032</v>
@@ -9251,16 +8820,16 @@
         <v>38</v>
       </c>
       <c r="B41" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C41" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D41" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E41" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F41">
         <v>2.1032</v>
@@ -9358,16 +8927,16 @@
         <v>38</v>
       </c>
       <c r="B42" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C42" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D42" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E42" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F42">
         <v>2.1032</v>
@@ -9458,434 +9027,6 @@
       </c>
       <c r="AI42">
         <v>71.30555099999999</v>
-      </c>
-    </row>
-    <row r="43" spans="1:35">
-      <c r="A43" t="s">
-        <v>39</v>
-      </c>
-      <c r="B43" t="s">
-        <v>43</v>
-      </c>
-      <c r="C43" t="s">
-        <v>57</v>
-      </c>
-      <c r="D43" t="s">
-        <v>63</v>
-      </c>
-      <c r="E43" t="s">
-        <v>75</v>
-      </c>
-      <c r="F43">
-        <v>999</v>
-      </c>
-      <c r="G43">
-        <v>0</v>
-      </c>
-      <c r="H43">
-        <v>999</v>
-      </c>
-      <c r="I43">
-        <v>999</v>
-      </c>
-      <c r="J43">
-        <v>1.345379874976294</v>
-      </c>
-      <c r="K43">
-        <v>2.540593724236029</v>
-      </c>
-      <c r="L43">
-        <v>3.598413754545598</v>
-      </c>
-      <c r="M43">
-        <v>4.575436641053129</v>
-      </c>
-      <c r="N43">
-        <v>5.49489324600721</v>
-      </c>
-      <c r="O43">
-        <v>6.351325471135017</v>
-      </c>
-      <c r="P43">
-        <v>7.173825692837827</v>
-      </c>
-      <c r="Q43">
-        <v>7.975961509254211</v>
-      </c>
-      <c r="R43">
-        <v>8.78769106226421</v>
-      </c>
-      <c r="S43">
-        <v>9.515320566301614</v>
-      </c>
-      <c r="T43">
-        <v>10.24628981415809</v>
-      </c>
-      <c r="U43">
-        <v>10.95095823479922</v>
-      </c>
-      <c r="V43">
-        <v>11.59777407059532</v>
-      </c>
-      <c r="W43">
-        <v>12.23810595439217</v>
-      </c>
-      <c r="X43">
-        <v>12.87691847640731</v>
-      </c>
-      <c r="Y43">
-        <v>13.49957155205969</v>
-      </c>
-      <c r="Z43">
-        <v>14.14820611162333</v>
-      </c>
-      <c r="AA43">
-        <v>14.76552657366356</v>
-      </c>
-      <c r="AB43">
-        <v>15.34698121896222</v>
-      </c>
-      <c r="AC43">
-        <v>15.8561503431666</v>
-      </c>
-      <c r="AD43">
-        <v>16.41235121488216</v>
-      </c>
-      <c r="AE43">
-        <v>16.91533854194804</v>
-      </c>
-      <c r="AF43">
-        <v>17.41885788706471</v>
-      </c>
-      <c r="AG43">
-        <v>17.90352570674829</v>
-      </c>
-      <c r="AH43">
-        <v>18.39315140508161</v>
-      </c>
-      <c r="AI43">
-        <v>18.85105115913482</v>
-      </c>
-    </row>
-    <row r="44" spans="1:35">
-      <c r="A44" t="s">
-        <v>39</v>
-      </c>
-      <c r="B44" t="s">
-        <v>44</v>
-      </c>
-      <c r="C44" t="s">
-        <v>57</v>
-      </c>
-      <c r="D44" t="s">
-        <v>63</v>
-      </c>
-      <c r="E44" t="s">
-        <v>75</v>
-      </c>
-      <c r="F44">
-        <v>999</v>
-      </c>
-      <c r="G44">
-        <v>0</v>
-      </c>
-      <c r="H44">
-        <v>999</v>
-      </c>
-      <c r="I44">
-        <v>999</v>
-      </c>
-      <c r="J44">
-        <v>2.168299522222379</v>
-      </c>
-      <c r="K44">
-        <v>4.100689753470416</v>
-      </c>
-      <c r="L44">
-        <v>5.815784946329838</v>
-      </c>
-      <c r="M44">
-        <v>7.399778716858663</v>
-      </c>
-      <c r="N44">
-        <v>8.886708851562037</v>
-      </c>
-      <c r="O44">
-        <v>10.27596943156682</v>
-      </c>
-      <c r="P44">
-        <v>11.61209912969572</v>
-      </c>
-      <c r="Q44">
-        <v>12.91879021934349</v>
-      </c>
-      <c r="R44">
-        <v>14.23154631291637</v>
-      </c>
-      <c r="S44">
-        <v>15.40406580673619</v>
-      </c>
-      <c r="T44">
-        <v>16.5810792082545</v>
-      </c>
-      <c r="U44">
-        <v>17.72079642498987</v>
-      </c>
-      <c r="V44">
-        <v>18.77874714893037</v>
-      </c>
-      <c r="W44">
-        <v>19.81217588190306</v>
-      </c>
-      <c r="X44">
-        <v>20.83958918753557</v>
-      </c>
-      <c r="Y44">
-        <v>21.8427927977781</v>
-      </c>
-      <c r="Z44">
-        <v>22.88403089063425</v>
-      </c>
-      <c r="AA44">
-        <v>23.87882228612748</v>
-      </c>
-      <c r="AB44">
-        <v>24.8177432484464</v>
-      </c>
-      <c r="AC44">
-        <v>25.64565792938321</v>
-      </c>
-      <c r="AD44">
-        <v>26.53565353516251</v>
-      </c>
-      <c r="AE44">
-        <v>27.33869120870074</v>
-      </c>
-      <c r="AF44">
-        <v>28.14299708843185</v>
-      </c>
-      <c r="AG44">
-        <v>28.92027471719199</v>
-      </c>
-      <c r="AH44">
-        <v>29.70716296598737</v>
-      </c>
-      <c r="AI44">
-        <v>30.43709567733014</v>
-      </c>
-    </row>
-    <row r="45" spans="1:35">
-      <c r="A45" t="s">
-        <v>39</v>
-      </c>
-      <c r="B45" t="s">
-        <v>40</v>
-      </c>
-      <c r="C45" t="s">
-        <v>57</v>
-      </c>
-      <c r="D45" t="s">
-        <v>63</v>
-      </c>
-      <c r="E45" t="s">
-        <v>75</v>
-      </c>
-      <c r="F45">
-        <v>999</v>
-      </c>
-      <c r="G45">
-        <v>0</v>
-      </c>
-      <c r="H45">
-        <v>999</v>
-      </c>
-      <c r="I45">
-        <v>999</v>
-      </c>
-      <c r="J45">
-        <v>1.34538</v>
-      </c>
-      <c r="K45">
-        <v>2.540594</v>
-      </c>
-      <c r="L45">
-        <v>3.598414</v>
-      </c>
-      <c r="M45">
-        <v>4.575437</v>
-      </c>
-      <c r="N45">
-        <v>5.494893</v>
-      </c>
-      <c r="O45">
-        <v>6.351325</v>
-      </c>
-      <c r="P45">
-        <v>7.173826</v>
-      </c>
-      <c r="Q45">
-        <v>7.975962</v>
-      </c>
-      <c r="R45">
-        <v>8.787691000000001</v>
-      </c>
-      <c r="S45">
-        <v>9.515321</v>
-      </c>
-      <c r="T45">
-        <v>10.24629</v>
-      </c>
-      <c r="U45">
-        <v>10.950958</v>
-      </c>
-      <c r="V45">
-        <v>11.597774</v>
-      </c>
-      <c r="W45">
-        <v>12.238106</v>
-      </c>
-      <c r="X45">
-        <v>12.876918</v>
-      </c>
-      <c r="Y45">
-        <v>13.499572</v>
-      </c>
-      <c r="Z45">
-        <v>14.148206</v>
-      </c>
-      <c r="AA45">
-        <v>14.765527</v>
-      </c>
-      <c r="AB45">
-        <v>15.346981</v>
-      </c>
-      <c r="AC45">
-        <v>15.85615</v>
-      </c>
-      <c r="AD45">
-        <v>16.412351</v>
-      </c>
-      <c r="AE45">
-        <v>16.915339</v>
-      </c>
-      <c r="AF45">
-        <v>17.418858</v>
-      </c>
-      <c r="AG45">
-        <v>17.903526</v>
-      </c>
-      <c r="AH45">
-        <v>18.393151</v>
-      </c>
-      <c r="AI45">
-        <v>18.851051</v>
-      </c>
-    </row>
-    <row r="46" spans="1:35">
-      <c r="A46" t="s">
-        <v>39</v>
-      </c>
-      <c r="B46" t="s">
-        <v>41</v>
-      </c>
-      <c r="C46" t="s">
-        <v>57</v>
-      </c>
-      <c r="D46" t="s">
-        <v>63</v>
-      </c>
-      <c r="E46" t="s">
-        <v>75</v>
-      </c>
-      <c r="F46">
-        <v>999</v>
-      </c>
-      <c r="G46">
-        <v>0</v>
-      </c>
-      <c r="H46">
-        <v>999</v>
-      </c>
-      <c r="I46">
-        <v>999</v>
-      </c>
-      <c r="J46">
-        <v>2.1683</v>
-      </c>
-      <c r="K46">
-        <v>4.10069</v>
-      </c>
-      <c r="L46">
-        <v>5.815785</v>
-      </c>
-      <c r="M46">
-        <v>7.399779</v>
-      </c>
-      <c r="N46">
-        <v>8.886709</v>
-      </c>
-      <c r="O46">
-        <v>10.275969</v>
-      </c>
-      <c r="P46">
-        <v>11.612099</v>
-      </c>
-      <c r="Q46">
-        <v>12.91879</v>
-      </c>
-      <c r="R46">
-        <v>14.231546</v>
-      </c>
-      <c r="S46">
-        <v>15.404066</v>
-      </c>
-      <c r="T46">
-        <v>16.581079</v>
-      </c>
-      <c r="U46">
-        <v>17.720796</v>
-      </c>
-      <c r="V46">
-        <v>18.778747</v>
-      </c>
-      <c r="W46">
-        <v>19.812176</v>
-      </c>
-      <c r="X46">
-        <v>20.839589</v>
-      </c>
-      <c r="Y46">
-        <v>21.842793</v>
-      </c>
-      <c r="Z46">
-        <v>22.884031</v>
-      </c>
-      <c r="AA46">
-        <v>23.878822</v>
-      </c>
-      <c r="AB46">
-        <v>24.817743</v>
-      </c>
-      <c r="AC46">
-        <v>25.645658</v>
-      </c>
-      <c r="AD46">
-        <v>26.535654</v>
-      </c>
-      <c r="AE46">
-        <v>27.338691</v>
-      </c>
-      <c r="AF46">
-        <v>28.142997</v>
-      </c>
-      <c r="AG46">
-        <v>28.920275</v>
-      </c>
-      <c r="AH46">
-        <v>29.707163</v>
-      </c>
-      <c r="AI46">
-        <v>30.437096</v>
       </c>
     </row>
   </sheetData>
@@ -9895,7 +9036,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AI46"/>
+  <dimension ref="A1:AI42"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -9930,82 +9071,82 @@
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>126</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:35">
@@ -10013,85 +9154,85 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J2">
-        <v>49.0164240344135</v>
+        <v>48.58343204363476</v>
       </c>
       <c r="K2">
-        <v>47.19108930588615</v>
+        <v>46.36587134861314</v>
       </c>
       <c r="L2">
-        <v>45.81837291696246</v>
+        <v>44.62608813650102</v>
       </c>
       <c r="M2">
-        <v>44.86003236287613</v>
+        <v>43.31450140965941</v>
       </c>
       <c r="N2">
-        <v>44.62408189310707</v>
+        <v>42.72077940683072</v>
       </c>
       <c r="O2">
-        <v>44.45677791039745</v>
+        <v>42.20460360112374</v>
       </c>
       <c r="P2">
-        <v>44.46674344182293</v>
+        <v>41.87198828704508</v>
       </c>
       <c r="Q2">
-        <v>44.45749610645687</v>
+        <v>41.53056165093086</v>
       </c>
       <c r="R2">
-        <v>44.80710125728955</v>
+        <v>41.52309138322784</v>
       </c>
       <c r="S2">
-        <v>44.97666670919578</v>
+        <v>41.35938418630406</v>
       </c>
       <c r="T2">
-        <v>44.98457651813803</v>
+        <v>41.05705334538068</v>
       </c>
       <c r="U2">
-        <v>44.94527103021953</v>
+        <v>40.70957160108625</v>
       </c>
       <c r="V2">
-        <v>45.00615627232415</v>
+        <v>40.45841409541703</v>
       </c>
       <c r="W2">
-        <v>45.20278478837456</v>
+        <v>40.33255899476061</v>
       </c>
       <c r="X2">
-        <v>45.08393232836678</v>
+        <v>39.92693700794298</v>
       </c>
       <c r="Y2">
-        <v>45.1780046464155</v>
+        <v>39.71192765755598</v>
       </c>
       <c r="Z2">
-        <v>45.28199057443035</v>
+        <v>39.50851260596519</v>
       </c>
       <c r="AA2">
-        <v>45.18869299332281</v>
+        <v>39.13432648625054</v>
       </c>
       <c r="AB2">
-        <v>45.01597354244672</v>
+        <v>38.69780506832236</v>
       </c>
       <c r="AC2">
-        <v>44.76703467570034</v>
+        <v>38.19833870086899</v>
       </c>
       <c r="AD2">
-        <v>44.71632255394954</v>
+        <v>37.88259248809627</v>
       </c>
       <c r="AE2">
-        <v>45.03756339518336</v>
+        <v>37.90234434407483</v>
       </c>
       <c r="AF2">
-        <v>44.79230976524384</v>
+        <v>37.42268333037964</v>
       </c>
       <c r="AG2">
-        <v>44.56489320793399</v>
+        <v>36.96660573159813</v>
       </c>
       <c r="AH2">
-        <v>44.37340270126831</v>
+        <v>36.54864711010371</v>
       </c>
       <c r="AI2">
-        <v>44.13799289912014</v>
+        <v>36.11453531675111</v>
       </c>
     </row>
     <row r="3" spans="1:35">
@@ -10099,85 +9240,85 @@
         <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J3">
-        <v>48.92988873205152</v>
+        <v>48.23373405560578</v>
       </c>
       <c r="K3">
-        <v>47.03139299141483</v>
+        <v>45.70499281392462</v>
       </c>
       <c r="L3">
-        <v>45.59370558395997</v>
+        <v>43.67793289043825</v>
       </c>
       <c r="M3">
-        <v>44.56850535195925</v>
+        <v>42.08549579184496</v>
       </c>
       <c r="N3">
-        <v>44.25219594694101</v>
+        <v>41.19481076821199</v>
       </c>
       <c r="O3">
-        <v>44.00317158112987</v>
+        <v>40.38754111923055</v>
       </c>
       <c r="P3">
-        <v>43.92328553110801</v>
+        <v>39.75885037814474</v>
       </c>
       <c r="Q3">
-        <v>43.82931433984344</v>
+        <v>39.13171446015403</v>
       </c>
       <c r="R3">
-        <v>44.1003524053766</v>
+        <v>38.8325033896082</v>
       </c>
       <c r="S3">
-        <v>44.19529198921288</v>
+        <v>38.39539028412166</v>
       </c>
       <c r="T3">
-        <v>44.12975961151195</v>
+        <v>37.83458562711871</v>
       </c>
       <c r="U3">
-        <v>44.03559904457894</v>
+        <v>37.24871489919416</v>
       </c>
       <c r="V3">
-        <v>44.04274763751731</v>
+        <v>36.7585323435779</v>
       </c>
       <c r="W3">
-        <v>44.18630672593465</v>
+        <v>36.38857555506637</v>
       </c>
       <c r="X3">
-        <v>44.03691740743303</v>
+        <v>35.7824954018262</v>
       </c>
       <c r="Y3">
-        <v>44.09523370339068</v>
+        <v>35.34864387554646</v>
       </c>
       <c r="Z3">
-        <v>44.16384876036304</v>
+        <v>34.92841899107987</v>
       </c>
       <c r="AA3">
-        <v>44.05062755360888</v>
+        <v>34.37025478208109</v>
       </c>
       <c r="AB3">
-        <v>43.86094283414438</v>
+        <v>33.76392842234122</v>
       </c>
       <c r="AC3">
-        <v>43.60629119003126</v>
+        <v>33.11390086498945</v>
       </c>
       <c r="AD3">
-        <v>43.53185185913008</v>
+        <v>32.61947916411948</v>
       </c>
       <c r="AE3">
-        <v>43.79466425396095</v>
+        <v>32.40066346027303</v>
       </c>
       <c r="AF3">
-        <v>43.55396415045551</v>
+        <v>31.78978270194856</v>
       </c>
       <c r="AG3">
-        <v>43.32933551826184</v>
+        <v>31.2048755374718</v>
       </c>
       <c r="AH3">
-        <v>43.12885126674485</v>
+        <v>30.6486684177921</v>
       </c>
       <c r="AI3">
-        <v>42.87530576327425</v>
+        <v>30.07904461501371</v>
       </c>
     </row>
     <row r="4" spans="1:35">
@@ -10185,94 +9326,94 @@
         <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J4">
-        <v>0.086535302361953</v>
+        <v>0.349697988028959</v>
       </c>
       <c r="K4">
-        <v>0.159696314471335</v>
+        <v>0.6608785346885392</v>
       </c>
       <c r="L4">
-        <v>0.2246673330025431</v>
+        <v>0.9481552460628341</v>
       </c>
       <c r="M4">
-        <v>0.291527010916879</v>
+        <v>1.229005617814445</v>
       </c>
       <c r="N4">
-        <v>0.37188594616614</v>
+        <v>1.525968638618821</v>
       </c>
       <c r="O4">
-        <v>0.4536063292676291</v>
+        <v>1.817062481893243</v>
       </c>
       <c r="P4">
-        <v>0.543457910714919</v>
+        <v>2.113137908900345</v>
       </c>
       <c r="Q4">
-        <v>0.6281817666133681</v>
+        <v>2.398847190776754</v>
       </c>
       <c r="R4">
-        <v>0.706748851912921</v>
+        <v>2.690587993619604</v>
       </c>
       <c r="S4">
-        <v>0.7813747199829</v>
+        <v>2.963993902182386</v>
       </c>
       <c r="T4">
-        <v>0.8548169066260511</v>
+        <v>3.22246771826194</v>
       </c>
       <c r="U4">
-        <v>0.909671985640649</v>
+        <v>3.460856701892135</v>
       </c>
       <c r="V4">
-        <v>0.9634086348068389</v>
+        <v>3.69988175183912</v>
       </c>
       <c r="W4">
-        <v>1.016478062439891</v>
+        <v>3.943983439694206</v>
       </c>
       <c r="X4">
-        <v>1.047014920933666</v>
+        <v>4.144441606116715</v>
       </c>
       <c r="Y4">
-        <v>1.082770943024784</v>
+        <v>4.363283782009486</v>
       </c>
       <c r="Z4">
-        <v>1.118141814067247</v>
+        <v>4.580093614885277</v>
       </c>
       <c r="AA4">
-        <v>1.138065439713965</v>
+        <v>4.764071704169478</v>
       </c>
       <c r="AB4">
-        <v>1.15503070830232</v>
+        <v>4.933876645981109</v>
       </c>
       <c r="AC4">
-        <v>1.160743485669042</v>
+        <v>5.084437835879509</v>
       </c>
       <c r="AD4">
-        <v>1.184470694819472</v>
+        <v>5.263113323976801</v>
       </c>
       <c r="AE4">
-        <v>1.242899141222356</v>
+        <v>5.501680883801766</v>
       </c>
       <c r="AF4">
-        <v>1.238345614788297</v>
+        <v>5.632900628431083</v>
       </c>
       <c r="AG4">
-        <v>1.235557689672173</v>
+        <v>5.761730194126349</v>
       </c>
       <c r="AH4">
-        <v>1.244551434523516</v>
+        <v>5.899978692311643</v>
       </c>
       <c r="AI4">
-        <v>1.262687135845916</v>
+        <v>6.035490701737436</v>
       </c>
     </row>
     <row r="5" spans="1:35">
@@ -10280,94 +9421,94 @@
         <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J5">
-        <v>-0.0007191717583129983</v>
+        <v>0.012179254313546</v>
       </c>
       <c r="K5">
-        <v>-0.001482663287840001</v>
+        <v>0.02309296408635</v>
       </c>
       <c r="L5">
-        <v>-0.002249131917666003</v>
+        <v>0.033373070121525</v>
       </c>
       <c r="M5">
-        <v>-0.002832020669801995</v>
+        <v>0.04358643016767601</v>
       </c>
       <c r="N5">
-        <v>-0.002935493169276007</v>
+        <v>0.053834243930489</v>
       </c>
       <c r="O5">
-        <v>-0.002758700946436994</v>
+        <v>0.06381314048486901</v>
       </c>
       <c r="P5">
-        <v>-0.002233053603211001</v>
+        <v>0.073957993102285</v>
       </c>
       <c r="Q5">
-        <v>-0.001865391640674993</v>
+        <v>0.08400606340189101</v>
       </c>
       <c r="R5">
-        <v>-0.001375503116327986</v>
+        <v>0.09410151391661901</v>
       </c>
       <c r="S5">
-        <v>-0.0009244387709569932</v>
+        <v>0.103694877858564</v>
       </c>
       <c r="T5">
-        <v>-0.0004345032980399877</v>
+        <v>0.11270010332681</v>
       </c>
       <c r="U5">
-        <v>-0.0001653686009960026</v>
+        <v>0.120975242833872</v>
       </c>
       <c r="V5">
-        <v>0.0002379207984300107</v>
+        <v>0.129295731889835</v>
       </c>
       <c r="W5">
-        <v>0.0007588561361030042</v>
+        <v>0.137804818193463</v>
       </c>
       <c r="X5">
-        <v>0.0006177895846489668</v>
+        <v>0.144979936270759</v>
       </c>
       <c r="Y5">
-        <v>0.0006812139357050062</v>
+        <v>0.152769353464194</v>
       </c>
       <c r="Z5">
-        <v>0.0008270023850409985</v>
+        <v>0.160181463581023</v>
       </c>
       <c r="AA5">
-        <v>0.0007950361819319726</v>
+        <v>0.166301950285899</v>
       </c>
       <c r="AB5">
-        <v>0.0006198850490490199</v>
+        <v>0.171830336497978</v>
       </c>
       <c r="AC5">
-        <v>0.0002810351005820036</v>
+        <v>0.177072515730499</v>
       </c>
       <c r="AD5">
-        <v>0.0004096407773980201</v>
+        <v>0.183156980348778</v>
       </c>
       <c r="AE5">
-        <v>-0.0001518956203199625</v>
+        <v>0.189693856360032</v>
       </c>
       <c r="AF5">
-        <v>-0.001570075586670995</v>
+        <v>0.193036265897053</v>
       </c>
       <c r="AG5">
-        <v>-0.002367424202404022</v>
+        <v>0.196823944002099</v>
       </c>
       <c r="AH5">
-        <v>-0.002274277343176007</v>
+        <v>0.201120955432843</v>
       </c>
       <c r="AI5">
-        <v>-0.001960935416773975</v>
+        <v>0.20569969359933</v>
       </c>
     </row>
     <row r="6" spans="1:35">
@@ -10375,94 +9516,94 @@
         <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J6">
-        <v>-0.0005973764340390004</v>
+        <v>0.006170650743998001</v>
       </c>
       <c r="K6">
-        <v>-0.001242258794762999</v>
+        <v>0.011712156692731</v>
       </c>
       <c r="L6">
-        <v>-0.001848848485863999</v>
+        <v>0.016904682382828</v>
       </c>
       <c r="M6">
-        <v>-0.002345179781505999</v>
+        <v>0.022041181393218</v>
       </c>
       <c r="N6">
-        <v>-0.002892406211020001</v>
+        <v>0.027449824137451</v>
       </c>
       <c r="O6">
-        <v>-0.003456239750183005</v>
+        <v>0.032765931854487</v>
       </c>
       <c r="P6">
-        <v>-0.003779978197488003</v>
+        <v>0.038103438599112</v>
       </c>
       <c r="Q6">
-        <v>-0.004341051582781003</v>
+        <v>0.043341628312381</v>
       </c>
       <c r="R6">
-        <v>-0.005030486177104004</v>
+        <v>0.048709069362644</v>
       </c>
       <c r="S6">
-        <v>-0.005851127946571001</v>
+        <v>0.053790522504062</v>
       </c>
       <c r="T6">
-        <v>-0.006809432835657999</v>
+        <v>0.058665009871105</v>
       </c>
       <c r="U6">
-        <v>-0.008018206345327005</v>
+        <v>0.063161553881852</v>
       </c>
       <c r="V6">
-        <v>-0.009314858673970998</v>
+        <v>0.067756850037223</v>
       </c>
       <c r="W6">
-        <v>-0.01079324354010801</v>
+        <v>0.07259690992977</v>
       </c>
       <c r="X6">
-        <v>-0.012764626164296</v>
+        <v>0.07659846533068901</v>
       </c>
       <c r="Y6">
-        <v>-0.01450428905726001</v>
+        <v>0.080923866933824</v>
       </c>
       <c r="Z6">
-        <v>-0.01632306181883201</v>
+        <v>0.08516250900060501</v>
       </c>
       <c r="AA6">
-        <v>-0.01822204813346699</v>
+        <v>0.088720136792914</v>
       </c>
       <c r="AB6">
-        <v>-0.02023467204267901</v>
+        <v>0.091968763400143</v>
       </c>
       <c r="AC6">
-        <v>-0.02235299364202601</v>
+        <v>0.09495323848774401</v>
       </c>
       <c r="AD6">
-        <v>-0.02428551271760899</v>
+        <v>0.09857839091289601</v>
       </c>
       <c r="AE6">
-        <v>-0.02629016637708002</v>
+        <v>0.103635652361082</v>
       </c>
       <c r="AF6">
-        <v>-0.02899781913363999</v>
+        <v>0.106519016477101</v>
       </c>
       <c r="AG6">
-        <v>-0.031675703946107</v>
+        <v>0.109196386894131</v>
       </c>
       <c r="AH6">
-        <v>-0.03427710050446899</v>
+        <v>0.112153450127257</v>
       </c>
       <c r="AI6">
-        <v>-0.036684849843079</v>
+        <v>0.115203707400455</v>
       </c>
     </row>
     <row r="7" spans="1:35">
@@ -10470,94 +9611,94 @@
         <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J7">
-        <v>0.010016299702692</v>
+        <v>0.020983352974582</v>
       </c>
       <c r="K7">
-        <v>0.019164885675454</v>
+        <v>0.03976744827946</v>
       </c>
       <c r="L7">
-        <v>0.027789647360174</v>
+        <v>0.057247871297344</v>
       </c>
       <c r="M7">
-        <v>0.03655682986769399</v>
+        <v>0.07442705253999299</v>
       </c>
       <c r="N7">
-        <v>0.04573148183313601</v>
+        <v>0.09211788046329901</v>
       </c>
       <c r="O7">
-        <v>0.05539665673672801</v>
+        <v>0.109758727479989</v>
       </c>
       <c r="P7">
-        <v>0.065470177985265</v>
+        <v>0.127496319687335</v>
       </c>
       <c r="Q7">
-        <v>0.07525834385607702</v>
+        <v>0.144578264824145</v>
       </c>
       <c r="R7">
-        <v>0.08504242352345702</v>
+        <v>0.161687987365083</v>
       </c>
       <c r="S7">
-        <v>0.09413693571666899</v>
+        <v>0.177402968176286</v>
       </c>
       <c r="T7">
-        <v>0.102942866650356</v>
+        <v>0.192377703345863</v>
       </c>
       <c r="U7">
-        <v>0.110703403802805</v>
+        <v>0.205389830412452</v>
       </c>
       <c r="V7">
-        <v>0.118288190446784</v>
+        <v>0.21830341229167</v>
       </c>
       <c r="W7">
-        <v>0.125953501039857</v>
+        <v>0.231267378545613</v>
       </c>
       <c r="X7">
-        <v>0.131678657654948</v>
+        <v>0.240930521513615</v>
       </c>
       <c r="Y7">
-        <v>0.137968437800836</v>
+        <v>0.251487345910347</v>
       </c>
       <c r="Z7">
-        <v>0.144701220818136</v>
+        <v>0.26246915788544</v>
       </c>
       <c r="AA7">
-        <v>0.150511575901188</v>
+        <v>0.271450666299482</v>
       </c>
       <c r="AB7">
-        <v>0.156192444823143</v>
+        <v>0.279330910683914</v>
       </c>
       <c r="AC7">
-        <v>0.161302767943113</v>
+        <v>0.286082634186907</v>
       </c>
       <c r="AD7">
-        <v>0.166926027623818</v>
+        <v>0.293880180994086</v>
       </c>
       <c r="AE7">
-        <v>0.170696619824659</v>
+        <v>0.3009695546716301</v>
       </c>
       <c r="AF7">
-        <v>0.171914429001841</v>
+        <v>0.302094062733985</v>
       </c>
       <c r="AG7">
-        <v>0.174649029723867</v>
+        <v>0.30470817784043</v>
       </c>
       <c r="AH7">
-        <v>0.178303139800889</v>
+        <v>0.308550854949289</v>
       </c>
       <c r="AI7">
-        <v>0.182072596854488</v>
+        <v>0.31244513189583</v>
       </c>
     </row>
     <row r="8" spans="1:35">
@@ -10565,94 +9706,94 @@
         <v>35</v>
       </c>
       <c r="B8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J8">
-        <v>-0.002175145584858</v>
+        <v>0.004763209767081</v>
       </c>
       <c r="K8">
-        <v>-0.004162035701144998</v>
+        <v>0.009035337162578002</v>
       </c>
       <c r="L8">
-        <v>-0.006020590351967</v>
+        <v>0.013052507594915</v>
       </c>
       <c r="M8">
-        <v>-0.007681783928929002</v>
+        <v>0.016961630045395</v>
       </c>
       <c r="N8">
-        <v>-0.009416716465793997</v>
+        <v>0.021078189119215</v>
       </c>
       <c r="O8">
-        <v>-0.011037148321545</v>
+        <v>0.025065456965237</v>
       </c>
       <c r="P8">
-        <v>-0.01256957738983199</v>
+        <v>0.02912461562497501</v>
       </c>
       <c r="Q8">
-        <v>-0.014174851445685</v>
+        <v>0.033042197077142</v>
       </c>
       <c r="R8">
-        <v>-0.015900293071399</v>
+        <v>0.037014936981173</v>
       </c>
       <c r="S8">
-        <v>-0.017596161217124</v>
+        <v>0.04074126057359501</v>
       </c>
       <c r="T8">
-        <v>-0.01934510898577201</v>
+        <v>0.0443239993259</v>
       </c>
       <c r="U8">
-        <v>-0.021197597012096</v>
+        <v>0.047604389649537</v>
       </c>
       <c r="V8">
-        <v>-0.02311762224769899</v>
+        <v>0.05107620462051401</v>
       </c>
       <c r="W8">
-        <v>-0.025225813876505</v>
+        <v>0.054737483045194</v>
       </c>
       <c r="X8">
-        <v>-0.02722531938486801</v>
+        <v>0.057673537722087</v>
       </c>
       <c r="Y8">
-        <v>-0.02956603434556</v>
+        <v>0.06094488595820401</v>
       </c>
       <c r="Z8">
-        <v>-0.03190182008371401</v>
+        <v>0.06403012092836299</v>
       </c>
       <c r="AA8">
-        <v>-0.03415543809161101</v>
+        <v>0.066605035923817</v>
       </c>
       <c r="AB8">
-        <v>-0.03629179510528199</v>
+        <v>0.068869873617539</v>
       </c>
       <c r="AC8">
-        <v>-0.03852290710536901</v>
+        <v>0.071027166310351</v>
       </c>
       <c r="AD8">
-        <v>-0.04079276032128001</v>
+        <v>0.073622678217402</v>
       </c>
       <c r="AE8">
-        <v>-0.04348971598259901</v>
+        <v>0.077177523663162</v>
       </c>
       <c r="AF8">
-        <v>-0.045742423292078</v>
+        <v>0.07903677906918299</v>
       </c>
       <c r="AG8">
-        <v>-0.048127869314686</v>
+        <v>0.080886423768788</v>
       </c>
       <c r="AH8">
-        <v>-0.050442148539812</v>
+        <v>0.08291128249909201</v>
       </c>
       <c r="AI8">
-        <v>-0.05268506427636301</v>
+        <v>0.08501755337050401</v>
       </c>
     </row>
     <row r="9" spans="1:35">
@@ -10660,94 +9801,94 @@
         <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J9">
-        <v>0.008323267550054999</v>
+        <v>0.03866534285628</v>
       </c>
       <c r="K9">
-        <v>0.015776569877878</v>
+        <v>0.073339377573301</v>
       </c>
       <c r="L9">
-        <v>0.022896215736543</v>
+        <v>0.105697918657713</v>
       </c>
       <c r="M9">
-        <v>0.03066316996051499</v>
+        <v>0.137894024929726</v>
       </c>
       <c r="N9">
-        <v>0.03962317845808699</v>
+        <v>0.171817282367404</v>
       </c>
       <c r="O9">
-        <v>0.04879119894159401</v>
+        <v>0.205057982325137</v>
       </c>
       <c r="P9">
-        <v>0.05892795888073901</v>
+        <v>0.2390708810864851</v>
       </c>
       <c r="Q9">
-        <v>0.06847845271670003</v>
+        <v>0.272130571585842</v>
       </c>
       <c r="R9">
-        <v>0.078104110817143</v>
+        <v>0.305709676272322</v>
       </c>
       <c r="S9">
-        <v>0.08713327859436697</v>
+        <v>0.337317566172134</v>
       </c>
       <c r="T9">
-        <v>0.09559086053779096</v>
+        <v>0.367602467782178</v>
       </c>
       <c r="U9">
-        <v>0.102745855431163</v>
+        <v>0.3951548898523671</v>
       </c>
       <c r="V9">
-        <v>0.10994963865219</v>
+        <v>0.423449699349092</v>
       </c>
       <c r="W9">
-        <v>0.117312938712272</v>
+        <v>0.452821347861164</v>
       </c>
       <c r="X9">
-        <v>0.122135291172172</v>
+        <v>0.477607069625494</v>
       </c>
       <c r="Y9">
-        <v>0.12770045978076</v>
+        <v>0.5052767787779531</v>
       </c>
       <c r="Z9">
-        <v>0.132753383748798</v>
+        <v>0.532161296061854</v>
       </c>
       <c r="AA9">
-        <v>0.136420469012087</v>
+        <v>0.5549045114514211</v>
       </c>
       <c r="AB9">
-        <v>0.139565291798471</v>
+        <v>0.5757127453329011</v>
       </c>
       <c r="AC9">
-        <v>0.14184861137127</v>
+        <v>0.5947708968113671</v>
       </c>
       <c r="AD9">
-        <v>0.1464196083981699</v>
+        <v>0.6178289309176209</v>
       </c>
       <c r="AE9">
-        <v>0.154679467100239</v>
+        <v>0.648859095738453</v>
       </c>
       <c r="AF9">
-        <v>0.156414205924287</v>
+        <v>0.666402471076329</v>
       </c>
       <c r="AG9">
-        <v>0.158172031714512</v>
+        <v>0.683225863470161</v>
       </c>
       <c r="AH9">
-        <v>0.1614900869931631</v>
+        <v>0.7011729230809751</v>
       </c>
       <c r="AI9">
-        <v>0.1657419060423319</v>
+        <v>0.7199013225690001</v>
       </c>
     </row>
     <row r="10" spans="1:35">
@@ -10755,94 +9896,94 @@
         <v>35</v>
       </c>
       <c r="B10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J10">
-        <v>-0.001384952718742</v>
+        <v>0.016029560142943</v>
       </c>
       <c r="K10">
-        <v>-0.002947109545611996</v>
+        <v>0.030480543293198</v>
       </c>
       <c r="L10">
-        <v>-0.004681832847223997</v>
+        <v>0.04415772456921</v>
       </c>
       <c r="M10">
-        <v>-0.006383645997478002</v>
+        <v>0.057842085105759</v>
       </c>
       <c r="N10">
-        <v>-0.007914330877930999</v>
+        <v>0.07213213826472401</v>
       </c>
       <c r="O10">
-        <v>-0.009033035276975007</v>
+        <v>0.086060904581783</v>
       </c>
       <c r="P10">
-        <v>-0.009207606114574001</v>
+        <v>0.099936081672604</v>
       </c>
       <c r="Q10">
-        <v>-0.009811040028777987</v>
+        <v>0.113575385760677</v>
       </c>
       <c r="R10">
-        <v>-0.010513172220925</v>
+        <v>0.127441048246302</v>
       </c>
       <c r="S10">
-        <v>-0.01122579219081202</v>
+        <v>0.140534430713666</v>
       </c>
       <c r="T10">
-        <v>-0.01185825193486699</v>
+        <v>0.152954564679425</v>
       </c>
       <c r="U10">
-        <v>-0.01386270891699702</v>
+        <v>0.164989451896282</v>
       </c>
       <c r="V10">
-        <v>-0.015610386325573</v>
+        <v>0.177109712242604</v>
       </c>
       <c r="W10">
-        <v>-0.01694504055506897</v>
+        <v>0.189411128637219</v>
       </c>
       <c r="X10">
-        <v>-0.01945916359343803</v>
+        <v>0.199731224636365</v>
       </c>
       <c r="Y10">
-        <v>-0.02387768844817502</v>
+        <v>0.212179523102318</v>
       </c>
       <c r="Z10">
-        <v>-0.02875707380669296</v>
+        <v>0.224432013428964</v>
       </c>
       <c r="AA10">
-        <v>-0.03217849373679301</v>
+        <v>0.234240335149975</v>
       </c>
       <c r="AB10">
-        <v>-0.03497497675544599</v>
+        <v>0.242948334751048</v>
       </c>
       <c r="AC10">
-        <v>-0.03840939493730504</v>
+        <v>0.251031396691711</v>
       </c>
       <c r="AD10">
-        <v>-0.04126099907332799</v>
+        <v>0.260822778651158</v>
       </c>
       <c r="AE10">
-        <v>-0.04279025733474898</v>
+        <v>0.273628219066558</v>
       </c>
       <c r="AF10">
-        <v>-0.04698216674870301</v>
+        <v>0.281302807817943</v>
       </c>
       <c r="AG10">
-        <v>-0.05116367564428395</v>
+        <v>0.288700492533444</v>
       </c>
       <c r="AH10">
-        <v>-0.05404113716343302</v>
+        <v>0.296396822725024</v>
       </c>
       <c r="AI10">
-        <v>-0.05655009238058198</v>
+        <v>0.304432177837072</v>
       </c>
     </row>
     <row r="11" spans="1:35">
@@ -10850,94 +9991,94 @@
         <v>35</v>
       </c>
       <c r="B11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J11">
-        <v>0.03489171866341999</v>
+        <v>0.09256268326509401</v>
       </c>
       <c r="K11">
-        <v>0.06548155171457001</v>
+        <v>0.175209233145065</v>
       </c>
       <c r="L11">
-        <v>0.09364168285123504</v>
+        <v>0.251561271541503</v>
       </c>
       <c r="M11">
-        <v>0.122453054197431</v>
+        <v>0.326703612666269</v>
       </c>
       <c r="N11">
-        <v>0.154605051226198</v>
+        <v>0.40629517948423</v>
       </c>
       <c r="O11">
-        <v>0.187044191210327</v>
+        <v>0.484044095750793</v>
       </c>
       <c r="P11">
-        <v>0.2215109346395921</v>
+        <v>0.563593735317594</v>
       </c>
       <c r="Q11">
-        <v>0.254348413275475</v>
+        <v>0.640839656271611</v>
       </c>
       <c r="R11">
-        <v>0.287468617310183</v>
+        <v>0.7184255645364421</v>
       </c>
       <c r="S11">
-        <v>0.31847584570722</v>
+        <v>0.7919773544316281</v>
       </c>
       <c r="T11">
-        <v>0.3478217908824781</v>
+        <v>0.8616029273980531</v>
       </c>
       <c r="U11">
-        <v>0.372792490124106</v>
+        <v>0.925441009915278</v>
       </c>
       <c r="V11">
-        <v>0.3977662815539528</v>
+        <v>0.989274257074983</v>
       </c>
       <c r="W11">
-        <v>0.4230412852846601</v>
+        <v>1.054355443696898</v>
       </c>
       <c r="X11">
-        <v>0.440819817978746</v>
+        <v>1.10727037533666</v>
       </c>
       <c r="Y11">
-        <v>0.4611499247530889</v>
+        <v>1.16531337390196</v>
       </c>
       <c r="Z11">
-        <v>0.4809433036421289</v>
+        <v>1.223106242535678</v>
       </c>
       <c r="AA11">
-        <v>0.4957977887627338</v>
+        <v>1.272135421563292</v>
       </c>
       <c r="AB11">
-        <v>0.5092662089655159</v>
+        <v>1.317007905219096</v>
       </c>
       <c r="AC11">
-        <v>0.5203524808782</v>
+        <v>1.357017510939272</v>
       </c>
       <c r="AD11">
-        <v>0.5364574198960741</v>
+        <v>1.405173077794851</v>
       </c>
       <c r="AE11">
-        <v>0.5634393756404891</v>
+        <v>1.472404264886226</v>
       </c>
       <c r="AF11">
-        <v>0.5728425586630032</v>
+        <v>1.508652914003107</v>
       </c>
       <c r="AG11">
-        <v>0.582015846474691</v>
+        <v>1.544027330262549</v>
       </c>
       <c r="AH11">
-        <v>0.5941492391402582</v>
+        <v>1.581342958275955</v>
       </c>
       <c r="AI11">
-        <v>0.607156742901648</v>
+        <v>1.618548465423457</v>
       </c>
     </row>
     <row r="12" spans="1:35">
@@ -10945,94 +10086,94 @@
         <v>35</v>
       </c>
       <c r="B12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J12">
-        <v>0.004773998389686999</v>
+        <v>0.022978976876191</v>
       </c>
       <c r="K12">
-        <v>0.008761352617554993</v>
+        <v>0.04361992160965599</v>
       </c>
       <c r="L12">
-        <v>0.012421485806299</v>
+        <v>0.06289918713768201</v>
       </c>
       <c r="M12">
-        <v>0.016536697139541</v>
+        <v>0.081647170156823</v>
       </c>
       <c r="N12">
-        <v>0.02093916894429201</v>
+        <v>0.101169589835133</v>
       </c>
       <c r="O12">
-        <v>0.02443721189058699</v>
+        <v>0.121443826952006</v>
       </c>
       <c r="P12">
-        <v>0.02895736021436398</v>
+        <v>0.141228527732585</v>
       </c>
       <c r="Q12">
-        <v>0.034261249535417</v>
+        <v>0.159174152456841</v>
       </c>
       <c r="R12">
-        <v>0.037621892034172</v>
+        <v>0.179514939470228</v>
       </c>
       <c r="S12">
-        <v>0.04067890229624504</v>
+        <v>0.198802591724452</v>
       </c>
       <c r="T12">
-        <v>0.04380282191547299</v>
+        <v>0.216858253740303</v>
       </c>
       <c r="U12">
-        <v>0.046164091423812</v>
+        <v>0.233305781434673</v>
       </c>
       <c r="V12">
-        <v>0.04919154044002504</v>
+        <v>0.249503861621666</v>
       </c>
       <c r="W12">
-        <v>0.052296081740143</v>
+        <v>0.266330683568106</v>
       </c>
       <c r="X12">
-        <v>0.05339810361233702</v>
+        <v>0.280160788334913</v>
       </c>
       <c r="Y12">
-        <v>0.05479092188179401</v>
+        <v>0.295902222963207</v>
       </c>
       <c r="Z12">
-        <v>0.05570127990178502</v>
+        <v>0.311597502403998</v>
       </c>
       <c r="AA12">
-        <v>0.05454124506394798</v>
+        <v>0.326370635846821</v>
       </c>
       <c r="AB12">
-        <v>0.05267167096172202</v>
+        <v>0.340345087999898</v>
       </c>
       <c r="AC12">
-        <v>0.05084728046033001</v>
+        <v>0.352419361727232</v>
       </c>
       <c r="AD12">
-        <v>0.05160735831894708</v>
+        <v>0.3654988695681221</v>
       </c>
       <c r="AE12">
-        <v>0.05651082999965901</v>
+        <v>0.38122247878911</v>
       </c>
       <c r="AF12">
-        <v>0.05504413251519794</v>
+        <v>0.391539761977007</v>
       </c>
       <c r="AG12">
-        <v>0.052817422936939</v>
+        <v>0.401756825240183</v>
       </c>
       <c r="AH12">
-        <v>0.05081892800360799</v>
+        <v>0.413569185655153</v>
       </c>
       <c r="AI12">
-        <v>0.05374533634872097</v>
+        <v>0.421965809133791</v>
       </c>
     </row>
     <row r="13" spans="1:35">
@@ -11040,94 +10181,94 @@
         <v>35</v>
       </c>
       <c r="B13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J13">
-        <v>-6.828598521500081E-05</v>
+        <v>0.004208289212975999</v>
       </c>
       <c r="K13">
-        <v>-0.0002396587979030004</v>
+        <v>0.008019762061282002</v>
       </c>
       <c r="L13">
-        <v>-0.0004689106997459997</v>
+        <v>0.011635893383683</v>
       </c>
       <c r="M13">
-        <v>-0.0006442871551980004</v>
+        <v>0.01520875113843</v>
       </c>
       <c r="N13">
-        <v>-0.0007476216178970002</v>
+        <v>0.018930650125253</v>
       </c>
       <c r="O13">
-        <v>-0.0009909470869539977</v>
+        <v>0.022621829535709</v>
       </c>
       <c r="P13">
-        <v>-0.001216411094630003</v>
+        <v>0.026417045446976</v>
       </c>
       <c r="Q13">
-        <v>-0.001568130234763995</v>
+        <v>0.03013865751597601</v>
       </c>
       <c r="R13">
-        <v>-0.002092891503146</v>
+        <v>0.034000074737404</v>
       </c>
       <c r="S13">
-        <v>-0.002546568189116001</v>
+        <v>0.037719487951908</v>
       </c>
       <c r="T13">
-        <v>-0.002997409567004994</v>
+        <v>0.04129160242098501</v>
       </c>
       <c r="U13">
-        <v>-0.003764254204277001</v>
+        <v>0.044646775123981</v>
       </c>
       <c r="V13">
-        <v>-0.004877517601474002</v>
+        <v>0.04814607872268901</v>
       </c>
       <c r="W13">
-        <v>-0.006106774138040006</v>
+        <v>0.051853721811841</v>
       </c>
       <c r="X13">
-        <v>-0.007561585370223001</v>
+        <v>0.05500272583063901</v>
       </c>
       <c r="Y13">
-        <v>-0.008863824927166008</v>
+        <v>0.058410115949042</v>
       </c>
       <c r="Z13">
-        <v>-0.01076318844990102</v>
+        <v>0.061919207597123</v>
       </c>
       <c r="AA13">
-        <v>-0.012839724135821</v>
+        <v>0.06511279214869001</v>
       </c>
       <c r="AB13">
-        <v>-0.014429551291711</v>
+        <v>0.067942363253917</v>
       </c>
       <c r="AC13">
-        <v>-0.016542336359644</v>
+        <v>0.07067753025111001</v>
       </c>
       <c r="AD13">
-        <v>-0.01852812912185599</v>
+        <v>0.07395665017088</v>
       </c>
       <c r="AE13">
-        <v>-0.020209903075189</v>
+        <v>0.07811584128871502</v>
       </c>
       <c r="AF13">
-        <v>-0.022467548288984</v>
+        <v>0.080828371082021</v>
       </c>
       <c r="AG13">
-        <v>-0.024692897263667</v>
+        <v>0.083389901215969</v>
       </c>
       <c r="AH13">
-        <v>-0.02704355788313501</v>
+        <v>0.08617863729099</v>
       </c>
       <c r="AI13">
-        <v>-0.02916028448063099</v>
+        <v>0.08906183866617801</v>
       </c>
     </row>
     <row r="14" spans="1:35">
@@ -11135,94 +10276,94 @@
         <v>35</v>
       </c>
       <c r="B14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J14">
-        <v>0.003523822553326003</v>
+        <v>0.06525243076267001</v>
       </c>
       <c r="K14">
-        <v>0.00521791039807202</v>
+        <v>0.123021819051064</v>
       </c>
       <c r="L14">
-        <v>0.005971505152436018</v>
+        <v>0.176183712162293</v>
       </c>
       <c r="M14">
-        <v>0.007321764691009015</v>
+        <v>0.227862030984982</v>
       </c>
       <c r="N14">
-        <v>0.01137482863593304</v>
+        <v>0.2817712149458931</v>
       </c>
       <c r="O14">
-        <v>0.01622528146940303</v>
+        <v>0.334123490736724</v>
       </c>
       <c r="P14">
-        <v>0.02200635210692197</v>
+        <v>0.387887880729642</v>
       </c>
       <c r="Q14">
-        <v>0.026950528804191</v>
+        <v>0.439858881298695</v>
       </c>
       <c r="R14">
-        <v>0.028306331415609</v>
+        <v>0.494664251879709</v>
       </c>
       <c r="S14">
-        <v>0.03119170284475005</v>
+        <v>0.5443712827933122</v>
       </c>
       <c r="T14">
-        <v>0.03601137760588097</v>
+        <v>0.59030860275429</v>
       </c>
       <c r="U14">
-        <v>0.03513128996856499</v>
+        <v>0.634269622486866</v>
       </c>
       <c r="V14">
-        <v>0.03289610971460701</v>
+        <v>0.6784505418879521</v>
       </c>
       <c r="W14">
-        <v>0.03033989724550307</v>
+        <v>0.7240434558137441</v>
       </c>
       <c r="X14">
-        <v>0.025175100365991</v>
+        <v>0.760611930835954</v>
       </c>
       <c r="Y14">
-        <v>0.0223526739959681</v>
+        <v>0.7999619513257762</v>
       </c>
       <c r="Z14">
-        <v>0.020887832196872</v>
+        <v>0.8380386151045239</v>
       </c>
       <c r="AA14">
-        <v>0.0157399752830019</v>
+        <v>0.870547709569314</v>
       </c>
       <c r="AB14">
-        <v>0.009391328644324065</v>
+        <v>0.9001129722628901</v>
       </c>
       <c r="AC14">
-        <v>-0.0007132141497750283</v>
+        <v>0.926655428164412</v>
       </c>
       <c r="AD14">
-        <v>-0.007234418576981903</v>
+        <v>0.9580204456312671</v>
       </c>
       <c r="AE14">
-        <v>-0.005183439576462985</v>
+        <v>1.000347132051494</v>
       </c>
       <c r="AF14">
-        <v>-0.01649841596396399</v>
+        <v>1.02394459923265</v>
       </c>
       <c r="AG14">
-        <v>-0.02716356582336497</v>
+        <v>1.045613222186296</v>
       </c>
       <c r="AH14">
-        <v>-0.03603458245459199</v>
+        <v>1.069452044523618</v>
       </c>
       <c r="AI14">
-        <v>-0.04196193075764418</v>
+        <v>1.093468644041338</v>
       </c>
     </row>
     <row r="15" spans="1:35">
@@ -11230,94 +10371,94 @@
         <v>35</v>
       </c>
       <c r="B15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J15">
-        <v>0.02995112798394001</v>
+        <v>0.06590423711359801</v>
       </c>
       <c r="K15">
-        <v>0.055367770315069</v>
+        <v>0.123579971733854</v>
       </c>
       <c r="L15">
-        <v>0.07721611039832302</v>
+        <v>0.175441407214138</v>
       </c>
       <c r="M15">
-        <v>0.097882412593602</v>
+        <v>0.224831648686174</v>
       </c>
       <c r="N15">
-        <v>0.123518805410412</v>
+        <v>0.27937244594573</v>
       </c>
       <c r="O15">
-        <v>0.1489878604010841</v>
+        <v>0.332307095226509</v>
       </c>
       <c r="P15">
-        <v>0.175591753287772</v>
+        <v>0.386321389900752</v>
       </c>
       <c r="Q15">
-        <v>0.200645243358191</v>
+        <v>0.4381617322715531</v>
       </c>
       <c r="R15">
-        <v>0.225117822901259</v>
+        <v>0.489318930851678</v>
       </c>
       <c r="S15">
-        <v>0.247902143138229</v>
+        <v>0.537641559282779</v>
       </c>
       <c r="T15">
-        <v>0.270091895655414</v>
+        <v>0.583782483617028</v>
       </c>
       <c r="U15">
-        <v>0.289142989969891</v>
+        <v>0.625918154404974</v>
       </c>
       <c r="V15">
-        <v>0.3079993380495671</v>
+        <v>0.6675154021008921</v>
       </c>
       <c r="W15">
-        <v>0.3258463743910751</v>
+        <v>0.708761068591193</v>
       </c>
       <c r="X15">
-        <v>0.340200855077648</v>
+        <v>0.743875030679539</v>
       </c>
       <c r="Y15">
-        <v>0.3549391476547931</v>
+        <v>0.7801143637226611</v>
       </c>
       <c r="Z15">
-        <v>0.370072935533626</v>
+        <v>0.816995486357705</v>
       </c>
       <c r="AA15">
-        <v>0.3816550536067659</v>
+        <v>0.8476825091378529</v>
       </c>
       <c r="AB15">
-        <v>0.3932548732552129</v>
+        <v>0.8778073529617849</v>
       </c>
       <c r="AC15">
-        <v>0.402652156109666</v>
+        <v>0.902730156578904</v>
       </c>
       <c r="AD15">
-        <v>0.4147524596161201</v>
+        <v>0.9325743407697391</v>
       </c>
       <c r="AE15">
-        <v>0.4356882266237099</v>
+        <v>0.975627264925304</v>
       </c>
       <c r="AF15">
-        <v>0.4443887376980081</v>
+        <v>0.9995435790647041</v>
       </c>
       <c r="AG15">
-        <v>0.453094495016677</v>
+        <v>1.023401626712299</v>
       </c>
       <c r="AH15">
-        <v>0.463902844474215</v>
+        <v>1.047129577751446</v>
       </c>
       <c r="AI15">
-        <v>0.4729737108538</v>
+        <v>1.069746357800481</v>
       </c>
     </row>
     <row r="16" spans="1:35">
@@ -11325,94 +10466,94 @@
         <v>35</v>
       </c>
       <c r="B16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J16">
-        <v>-0.263162685667006</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>-0.501182220217204</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>-0.7234879130602913</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>-0.9374786068975661</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>-1.154082692452681</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>-1.363456152625614</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>-1.569679998185426</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>-1.770665424163385</v>
+        <v>0</v>
       </c>
       <c r="R16">
-        <v>-1.983839141706683</v>
+        <v>0</v>
       </c>
       <c r="S16">
-        <v>-2.182619182199487</v>
+        <v>0</v>
       </c>
       <c r="T16">
-        <v>-2.367650811635889</v>
+        <v>0</v>
       </c>
       <c r="U16">
-        <v>-2.551184716251485</v>
+        <v>0</v>
       </c>
       <c r="V16">
-        <v>-2.736473117032281</v>
+        <v>0</v>
       </c>
       <c r="W16">
-        <v>-2.927505377254314</v>
+        <v>0</v>
       </c>
       <c r="X16">
-        <v>-3.097426685183048</v>
+        <v>0</v>
       </c>
       <c r="Y16">
-        <v>-3.280512838984702</v>
+        <v>0</v>
       </c>
       <c r="Z16">
-        <v>-3.46195180081803</v>
+        <v>0</v>
       </c>
       <c r="AA16">
-        <v>-3.626006264455513</v>
+        <v>0</v>
       </c>
       <c r="AB16">
-        <v>-3.778845937678789</v>
+        <v>0</v>
       </c>
       <c r="AC16">
-        <v>-3.923694350210468</v>
+        <v>0</v>
       </c>
       <c r="AD16">
-        <v>-4.078642629157328</v>
+        <v>0</v>
       </c>
       <c r="AE16">
-        <v>-4.258781742579409</v>
+        <v>0</v>
       </c>
       <c r="AF16">
-        <v>-4.394555013642786</v>
+        <v>0</v>
       </c>
       <c r="AG16">
-        <v>-4.526172504454176</v>
+        <v>0</v>
       </c>
       <c r="AH16">
-        <v>-4.655427257788126</v>
+        <v>0</v>
       </c>
       <c r="AI16">
-        <v>-4.772803565891521</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:35">
@@ -11420,16 +10561,16 @@
         <v>35</v>
       </c>
       <c r="B17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J17">
         <v>0.114522963785754</v>
@@ -11515,16 +10656,16 @@
         <v>35</v>
       </c>
       <c r="B18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J18">
         <v>0.1601735128795501</v>
@@ -11610,16 +10751,16 @@
         <v>35</v>
       </c>
       <c r="B19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J19">
         <v>0.075001511363655</v>
@@ -11705,16 +10846,16 @@
         <v>35</v>
       </c>
       <c r="B20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -11800,16 +10941,16 @@
         <v>35</v>
       </c>
       <c r="B21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -11895,94 +11036,94 @@
         <v>35</v>
       </c>
       <c r="B22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E22" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J22">
-        <v>0.136685299917355</v>
+        <v>0.3646235507320881</v>
       </c>
       <c r="K22">
-        <v>0.2568949332568261</v>
+        <v>0.6890290423265441</v>
       </c>
       <c r="L22">
-        <v>0.3673639721384109</v>
+        <v>0.988444143938618</v>
       </c>
       <c r="M22">
-        <v>0.479862897507756</v>
+        <v>1.281613133331835</v>
       </c>
       <c r="N22">
-        <v>0.6073484392977269</v>
+        <v>1.591505766615879</v>
       </c>
       <c r="O22">
-        <v>0.7374905533840552</v>
+        <v>1.895944746248743</v>
       </c>
       <c r="P22">
-        <v>0.8758089137552133</v>
+        <v>2.205836472836058</v>
       </c>
       <c r="Q22">
-        <v>1.008149766470905</v>
+        <v>2.504966111436548</v>
       </c>
       <c r="R22">
-        <v>1.139328115700129</v>
+        <v>2.809590667999925</v>
       </c>
       <c r="S22">
-        <v>1.263758499621844</v>
+        <v>3.094728356254504</v>
       </c>
       <c r="T22">
-        <v>1.382014097650859</v>
+        <v>3.362872460049545</v>
       </c>
       <c r="U22">
-        <v>1.484801725298841</v>
+        <v>3.61051803521211</v>
       </c>
       <c r="V22">
-        <v>1.587784447388844</v>
+        <v>3.857811490352813</v>
       </c>
       <c r="W22">
-        <v>1.692636704754446</v>
+        <v>4.110044888875216</v>
       </c>
       <c r="X22">
-        <v>1.771963853509751</v>
+        <v>4.317187343352638</v>
       </c>
       <c r="Y22">
-        <v>1.857447970811142</v>
+        <v>4.541145049676284</v>
       </c>
       <c r="Z22">
-        <v>1.942414218951654</v>
+        <v>4.762716302143809</v>
       </c>
       <c r="AA22">
-        <v>2.010035500599853</v>
+        <v>4.950699501412837</v>
       </c>
       <c r="AB22">
-        <v>2.073919575466028</v>
+        <v>5.125195804160004</v>
       </c>
       <c r="AC22">
-        <v>2.127225062058229</v>
+        <v>5.279691910583536</v>
       </c>
       <c r="AD22">
-        <v>2.199319710256198</v>
+        <v>5.462057061177441</v>
       </c>
       <c r="AE22">
-        <v>2.303818587141502</v>
+        <v>5.703639250997616</v>
       </c>
       <c r="AF22">
-        <v>2.344476821845515</v>
+        <v>5.835438927771304</v>
       </c>
       <c r="AG22">
-        <v>2.389733935098231</v>
+        <v>5.967067050548468</v>
       </c>
       <c r="AH22">
-        <v>2.443830081673448</v>
+        <v>6.105909995960816</v>
       </c>
       <c r="AI22">
-        <v>2.50223970570602</v>
+        <v>6.243279756269463</v>
       </c>
     </row>
     <row r="23" spans="1:35">
@@ -11990,94 +11131,94 @@
         <v>35</v>
       </c>
       <c r="B23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E23" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J23">
-        <v>-0.050149997555402</v>
+        <v>-0.014925562703129</v>
       </c>
       <c r="K23">
-        <v>-0.09719861878549101</v>
+        <v>-0.028150507638005</v>
       </c>
       <c r="L23">
-        <v>-0.142696639135868</v>
+        <v>-0.040288897875784</v>
       </c>
       <c r="M23">
-        <v>-0.188335886590877</v>
+        <v>-0.05260751551738999</v>
       </c>
       <c r="N23">
-        <v>-0.235462493131587</v>
+        <v>-0.06553712799705801</v>
       </c>
       <c r="O23">
-        <v>-0.2838842241164261</v>
+        <v>-0.07888226435550003</v>
       </c>
       <c r="P23">
-        <v>-0.332351003040294</v>
+        <v>-0.09269856393571302</v>
       </c>
       <c r="Q23">
-        <v>-0.379967999857537</v>
+        <v>-0.106118920659793</v>
       </c>
       <c r="R23">
-        <v>-0.432579263787208</v>
+        <v>-0.119002674380321</v>
       </c>
       <c r="S23">
-        <v>-0.4823837796389441</v>
+        <v>-0.130734454072118</v>
       </c>
       <c r="T23">
-        <v>-0.5271971910248081</v>
+        <v>-0.140404741787604</v>
       </c>
       <c r="U23">
-        <v>-0.575129739658191</v>
+        <v>-0.149661333319975</v>
       </c>
       <c r="V23">
-        <v>-0.6243758125820041</v>
+        <v>-0.157929738513693</v>
       </c>
       <c r="W23">
-        <v>-0.676158642314555</v>
+        <v>-0.166061449181012</v>
       </c>
       <c r="X23">
-        <v>-0.7249489325760851</v>
+        <v>-0.1727457372359239</v>
       </c>
       <c r="Y23">
-        <v>-0.7746770277863579</v>
+        <v>-0.1778612676667979</v>
       </c>
       <c r="Z23">
-        <v>-0.8242724048844071</v>
+        <v>-0.1826226872585309</v>
       </c>
       <c r="AA23">
-        <v>-0.8719700608858891</v>
+        <v>-0.1866277972433591</v>
       </c>
       <c r="AB23">
-        <v>-0.918888867163709</v>
+        <v>-0.1913191581788951</v>
       </c>
       <c r="AC23">
-        <v>-0.9664815763891872</v>
+        <v>-0.1952540747040271</v>
       </c>
       <c r="AD23">
-        <v>-1.014849015436727</v>
+        <v>-0.1989437372006409</v>
       </c>
       <c r="AE23">
-        <v>-1.060919445919146</v>
+        <v>-0.2019583671958499</v>
       </c>
       <c r="AF23">
-        <v>-1.106131207057217</v>
+        <v>-0.2025382993402211</v>
       </c>
       <c r="AG23">
-        <v>-1.154176245426058</v>
+        <v>-0.205336856422119</v>
       </c>
       <c r="AH23">
-        <v>-1.199278647149931</v>
+        <v>-0.205931303649173</v>
       </c>
       <c r="AI23">
-        <v>-1.239552569860104</v>
+        <v>-0.207789054532027</v>
       </c>
     </row>
     <row r="24" spans="1:35">
@@ -12085,16 +11226,16 @@
         <v>35</v>
       </c>
       <c r="B24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -12180,16 +11321,16 @@
         <v>35</v>
       </c>
       <c r="B25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E25" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -12275,16 +11416,16 @@
         <v>35</v>
       </c>
       <c r="B26" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E26" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J26">
         <v>0</v>
@@ -12370,16 +11511,16 @@
         <v>35</v>
       </c>
       <c r="B27" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E27" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J27">
         <v>0</v>
@@ -12465,16 +11606,16 @@
         <v>35</v>
       </c>
       <c r="B28" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E28" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J28">
         <v>0</v>
@@ -12560,16 +11701,16 @@
         <v>35</v>
       </c>
       <c r="B29" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E29" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J29">
         <v>0</v>
@@ -12655,16 +11796,16 @@
         <v>35</v>
       </c>
       <c r="B30" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E30" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J30">
         <v>0</v>
@@ -12750,16 +11891,16 @@
         <v>36</v>
       </c>
       <c r="B31" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C31" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D31" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E31" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F31">
         <v>0.2649</v>
@@ -12857,16 +11998,16 @@
         <v>36</v>
       </c>
       <c r="B32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C32" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D32" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E32" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F32">
         <v>0.2649</v>
@@ -12964,16 +12105,16 @@
         <v>36</v>
       </c>
       <c r="B33" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C33" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D33" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E33" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F33">
         <v>0.2649</v>
@@ -13071,16 +12212,16 @@
         <v>36</v>
       </c>
       <c r="B34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C34" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D34" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E34" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F34">
         <v>0.2649</v>
@@ -13178,16 +12319,16 @@
         <v>37</v>
       </c>
       <c r="B35" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C35" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D35" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E35" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F35">
         <v>20.5893</v>
@@ -13285,16 +12426,16 @@
         <v>37</v>
       </c>
       <c r="B36" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C36" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D36" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E36" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F36">
         <v>20.5893</v>
@@ -13392,16 +12533,16 @@
         <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C37" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D37" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E37" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F37">
         <v>20.5893</v>
@@ -13499,16 +12640,16 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C38" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D38" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E38" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F38">
         <v>20.5893</v>
@@ -13606,16 +12747,16 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C39" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D39" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E39" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F39">
         <v>2.1032</v>
@@ -13713,16 +12854,16 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C40" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D40" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E40" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F40">
         <v>2.1032</v>
@@ -13820,16 +12961,16 @@
         <v>38</v>
       </c>
       <c r="B41" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C41" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D41" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E41" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F41">
         <v>2.1032</v>
@@ -13927,16 +13068,16 @@
         <v>38</v>
       </c>
       <c r="B42" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C42" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D42" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E42" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F42">
         <v>2.1032</v>
@@ -14027,434 +13168,6 @@
       </c>
       <c r="AI42">
         <v>27.70342952389819</v>
-      </c>
-    </row>
-    <row r="43" spans="1:35">
-      <c r="A43" t="s">
-        <v>39</v>
-      </c>
-      <c r="B43" t="s">
-        <v>43</v>
-      </c>
-      <c r="C43" t="s">
-        <v>57</v>
-      </c>
-      <c r="D43" t="s">
-        <v>63</v>
-      </c>
-      <c r="E43" t="s">
-        <v>75</v>
-      </c>
-      <c r="F43">
-        <v>999</v>
-      </c>
-      <c r="G43">
-        <v>0</v>
-      </c>
-      <c r="H43">
-        <v>999</v>
-      </c>
-      <c r="I43">
-        <v>999</v>
-      </c>
-      <c r="J43">
-        <v>0.4329919907787287</v>
-      </c>
-      <c r="K43">
-        <v>0.8252179572730119</v>
-      </c>
-      <c r="L43">
-        <v>1.19228478046143</v>
-      </c>
-      <c r="M43">
-        <v>1.545530953216722</v>
-      </c>
-      <c r="N43">
-        <v>1.903302486276346</v>
-      </c>
-      <c r="O43">
-        <v>2.252174309273708</v>
-      </c>
-      <c r="P43">
-        <v>2.594755154777844</v>
-      </c>
-      <c r="Q43">
-        <v>2.926934455526013</v>
-      </c>
-      <c r="R43">
-        <v>3.284009874061721</v>
-      </c>
-      <c r="S43">
-        <v>3.617282522891721</v>
-      </c>
-      <c r="T43">
-        <v>3.927523172757345</v>
-      </c>
-      <c r="U43">
-        <v>4.235699429133292</v>
-      </c>
-      <c r="V43">
-        <v>4.547742176907122</v>
-      </c>
-      <c r="W43">
-        <v>4.870225793613955</v>
-      </c>
-      <c r="X43">
-        <v>5.156995320423791</v>
-      </c>
-      <c r="Y43">
-        <v>5.466076988859524</v>
-      </c>
-      <c r="Z43">
-        <v>5.773477968465156</v>
-      </c>
-      <c r="AA43">
-        <v>6.054366507072277</v>
-      </c>
-      <c r="AB43">
-        <v>6.318168474124371</v>
-      </c>
-      <c r="AC43">
-        <v>6.568695974831352</v>
-      </c>
-      <c r="AD43">
-        <v>6.833730065853273</v>
-      </c>
-      <c r="AE43">
-        <v>7.135219051108527</v>
-      </c>
-      <c r="AF43">
-        <v>7.369626434864203</v>
-      </c>
-      <c r="AG43">
-        <v>7.598287476335861</v>
-      </c>
-      <c r="AH43">
-        <v>7.824755591164603</v>
-      </c>
-      <c r="AI43">
-        <v>8.023457582369021</v>
-      </c>
-    </row>
-    <row r="44" spans="1:35">
-      <c r="A44" t="s">
-        <v>39</v>
-      </c>
-      <c r="B44" t="s">
-        <v>44</v>
-      </c>
-      <c r="C44" t="s">
-        <v>57</v>
-      </c>
-      <c r="D44" t="s">
-        <v>63</v>
-      </c>
-      <c r="E44" t="s">
-        <v>75</v>
-      </c>
-      <c r="F44">
-        <v>999</v>
-      </c>
-      <c r="G44">
-        <v>0</v>
-      </c>
-      <c r="H44">
-        <v>999</v>
-      </c>
-      <c r="I44">
-        <v>999</v>
-      </c>
-      <c r="J44">
-        <v>0.6961546764457346</v>
-      </c>
-      <c r="K44">
-        <v>1.326400177490215</v>
-      </c>
-      <c r="L44">
-        <v>1.915772693521721</v>
-      </c>
-      <c r="M44">
-        <v>2.483009560114287</v>
-      </c>
-      <c r="N44">
-        <v>3.05738517872903</v>
-      </c>
-      <c r="O44">
-        <v>3.615630461899319</v>
-      </c>
-      <c r="P44">
-        <v>4.164435152963275</v>
-      </c>
-      <c r="Q44">
-        <v>4.697599879689407</v>
-      </c>
-      <c r="R44">
-        <v>5.267849015768397</v>
-      </c>
-      <c r="S44">
-        <v>5.799901705091215</v>
-      </c>
-      <c r="T44">
-        <v>6.29517398439324</v>
-      </c>
-      <c r="U44">
-        <v>6.786884145384783</v>
-      </c>
-      <c r="V44">
-        <v>7.284215293939403</v>
-      </c>
-      <c r="W44">
-        <v>7.797731170868273</v>
-      </c>
-      <c r="X44">
-        <v>8.254422005606832</v>
-      </c>
-      <c r="Y44">
-        <v>8.746589827844227</v>
-      </c>
-      <c r="Z44">
-        <v>9.235429769283177</v>
-      </c>
-      <c r="AA44">
-        <v>9.680372771527784</v>
-      </c>
-      <c r="AB44">
-        <v>10.09701441180316</v>
-      </c>
-      <c r="AC44">
-        <v>10.49239032504181</v>
-      </c>
-      <c r="AD44">
-        <v>10.91237269501059</v>
-      </c>
-      <c r="AE44">
-        <v>11.39400079368792</v>
-      </c>
-      <c r="AF44">
-        <v>11.76418144850695</v>
-      </c>
-      <c r="AG44">
-        <v>12.12445998079004</v>
-      </c>
-      <c r="AH44">
-        <v>12.48018284895275</v>
-      </c>
-      <c r="AI44">
-        <v>12.79626114826054</v>
-      </c>
-    </row>
-    <row r="45" spans="1:35">
-      <c r="A45" t="s">
-        <v>39</v>
-      </c>
-      <c r="B45" t="s">
-        <v>40</v>
-      </c>
-      <c r="C45" t="s">
-        <v>57</v>
-      </c>
-      <c r="D45" t="s">
-        <v>63</v>
-      </c>
-      <c r="E45" t="s">
-        <v>75</v>
-      </c>
-      <c r="F45">
-        <v>999</v>
-      </c>
-      <c r="G45">
-        <v>0</v>
-      </c>
-      <c r="H45">
-        <v>999</v>
-      </c>
-      <c r="I45">
-        <v>999</v>
-      </c>
-      <c r="J45">
-        <v>0.4329919907787291</v>
-      </c>
-      <c r="K45">
-        <v>0.8252179572730121</v>
-      </c>
-      <c r="L45">
-        <v>1.19228478046143</v>
-      </c>
-      <c r="M45">
-        <v>1.545530953216722</v>
-      </c>
-      <c r="N45">
-        <v>1.903302486276346</v>
-      </c>
-      <c r="O45">
-        <v>2.252174309273708</v>
-      </c>
-      <c r="P45">
-        <v>2.594755154777844</v>
-      </c>
-      <c r="Q45">
-        <v>2.926934455526013</v>
-      </c>
-      <c r="R45">
-        <v>3.284009874061721</v>
-      </c>
-      <c r="S45">
-        <v>3.617282522891721</v>
-      </c>
-      <c r="T45">
-        <v>3.927523172757344</v>
-      </c>
-      <c r="U45">
-        <v>4.235699429133293</v>
-      </c>
-      <c r="V45">
-        <v>4.547742176907122</v>
-      </c>
-      <c r="W45">
-        <v>4.870225793613955</v>
-      </c>
-      <c r="X45">
-        <v>5.156995320423791</v>
-      </c>
-      <c r="Y45">
-        <v>5.466076988859524</v>
-      </c>
-      <c r="Z45">
-        <v>5.773477968465156</v>
-      </c>
-      <c r="AA45">
-        <v>6.054366507072277</v>
-      </c>
-      <c r="AB45">
-        <v>6.318168474124371</v>
-      </c>
-      <c r="AC45">
-        <v>6.568695974831352</v>
-      </c>
-      <c r="AD45">
-        <v>6.833730065853273</v>
-      </c>
-      <c r="AE45">
-        <v>7.135219051108527</v>
-      </c>
-      <c r="AF45">
-        <v>7.369626434864202</v>
-      </c>
-      <c r="AG45">
-        <v>7.598287476335861</v>
-      </c>
-      <c r="AH45">
-        <v>7.824755591164603</v>
-      </c>
-      <c r="AI45">
-        <v>8.023457582369021</v>
-      </c>
-    </row>
-    <row r="46" spans="1:35">
-      <c r="A46" t="s">
-        <v>39</v>
-      </c>
-      <c r="B46" t="s">
-        <v>41</v>
-      </c>
-      <c r="C46" t="s">
-        <v>57</v>
-      </c>
-      <c r="D46" t="s">
-        <v>63</v>
-      </c>
-      <c r="E46" t="s">
-        <v>75</v>
-      </c>
-      <c r="F46">
-        <v>999</v>
-      </c>
-      <c r="G46">
-        <v>0</v>
-      </c>
-      <c r="H46">
-        <v>999</v>
-      </c>
-      <c r="I46">
-        <v>999</v>
-      </c>
-      <c r="J46">
-        <v>0.696154676445734</v>
-      </c>
-      <c r="K46">
-        <v>1.326400177490215</v>
-      </c>
-      <c r="L46">
-        <v>1.915772693521721</v>
-      </c>
-      <c r="M46">
-        <v>2.483009560114287</v>
-      </c>
-      <c r="N46">
-        <v>3.05738517872903</v>
-      </c>
-      <c r="O46">
-        <v>3.615630461899318</v>
-      </c>
-      <c r="P46">
-        <v>4.164435152963274</v>
-      </c>
-      <c r="Q46">
-        <v>4.697599879689407</v>
-      </c>
-      <c r="R46">
-        <v>5.267849015768397</v>
-      </c>
-      <c r="S46">
-        <v>5.799901705091215</v>
-      </c>
-      <c r="T46">
-        <v>6.29517398439324</v>
-      </c>
-      <c r="U46">
-        <v>6.786884145384783</v>
-      </c>
-      <c r="V46">
-        <v>7.284215293939403</v>
-      </c>
-      <c r="W46">
-        <v>7.797731170868273</v>
-      </c>
-      <c r="X46">
-        <v>8.254422005606834</v>
-      </c>
-      <c r="Y46">
-        <v>8.746589827844227</v>
-      </c>
-      <c r="Z46">
-        <v>9.235429769283177</v>
-      </c>
-      <c r="AA46">
-        <v>9.680372771527784</v>
-      </c>
-      <c r="AB46">
-        <v>10.09701441180316</v>
-      </c>
-      <c r="AC46">
-        <v>10.49239032504181</v>
-      </c>
-      <c r="AD46">
-        <v>10.91237269501059</v>
-      </c>
-      <c r="AE46">
-        <v>11.39400079368792</v>
-      </c>
-      <c r="AF46">
-        <v>11.76418144850695</v>
-      </c>
-      <c r="AG46">
-        <v>12.12445998079004</v>
-      </c>
-      <c r="AH46">
-        <v>12.48018284895275</v>
-      </c>
-      <c r="AI46">
-        <v>12.79626114826054</v>
       </c>
     </row>
   </sheetData>
